--- a/Jogos_da_Semana_FlashScore_2024-10-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-05.xlsx
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1863,16 +1863,16 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.3</v>
@@ -1881,16 +1881,16 @@
         <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
         <v>15</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
         <v>13</v>
@@ -1899,16 +1899,16 @@
         <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
         <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1923,16 +1923,16 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>23</v>
@@ -1941,10 +1941,10 @@
         <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1971,7 +1971,7 @@
         <v>4.33</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
         <v>17</v>
@@ -1980,7 +1980,7 @@
         <v>34</v>
       </c>
       <c r="BB8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC8" t="n">
         <v>101</v>
@@ -2024,52 +2024,52 @@
         <v>3</v>
       </c>
       <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -2081,28 +2081,28 @@
         <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2114,16 +2114,16 @@
         <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
@@ -2138,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
@@ -2165,7 +2165,7 @@
         <v>51</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
@@ -2227,40 +2227,40 @@
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
         <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2272,19 +2272,19 @@
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2305,13 +2305,13 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2320,7 +2320,7 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2385,58 +2385,58 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -2451,7 +2451,7 @@
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2463,7 +2463,7 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
         <v>10</v>
@@ -2472,19 +2472,19 @@
         <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>15</v>
@@ -2502,19 +2502,19 @@
         <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
         <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
@@ -3298,10 +3298,10 @@
         <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
         <v>2.75</v>
@@ -3310,58 +3310,58 @@
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
         <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3373,7 +3373,7 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
@@ -3385,16 +3385,16 @@
         <v>12</v>
       </c>
       <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
         <v>34</v>
       </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>29</v>
-      </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>12</v>
@@ -3409,13 +3409,13 @@
         <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3427,19 +3427,19 @@
         <v>5.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD16" t="n">
         <v>151</v>
@@ -3659,55 +3659,55 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L18" t="n">
         <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
         <v>7</v>
@@ -3716,19 +3716,19 @@
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE18" t="n">
         <v>19</v>
@@ -3737,13 +3737,13 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="n">
         <v>21</v>
@@ -3755,28 +3755,28 @@
         <v>51</v>
       </c>
       <c r="AM18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
         <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>19</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>21</v>
-      </c>
       <c r="AR18" t="n">
         <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU18" t="n">
         <v>8.5</v>
@@ -3788,19 +3788,19 @@
         <v>151</v>
       </c>
       <c r="AX18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY18" t="n">
         <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA18" t="n">
         <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC18" t="n">
         <v>251</v>
@@ -3847,7 +3847,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.8</v>
@@ -3856,7 +3856,7 @@
         <v>2.6</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3871,22 +3871,22 @@
         <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
         <v>7.5</v>
@@ -3898,13 +3898,13 @@
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA19" t="n">
         <v>11</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
@@ -3916,13 +3916,13 @@
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
         <v>41</v>
@@ -3958,16 +3958,16 @@
         <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX19" t="n">
         <v>9.5</v>
@@ -3979,13 +3979,13 @@
         <v>41</v>
       </c>
       <c r="BA19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -4071,19 +4071,19 @@
         <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
@@ -4098,34 +4098,34 @@
         <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
         <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4134,10 +4134,10 @@
         <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT20" t="n">
         <v>2.75</v>
@@ -4152,10 +4152,10 @@
         <v>501</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
         <v>23</v>
@@ -4205,103 +4205,103 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S21" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
         <v>8</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA21" t="n">
         <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD21" t="n">
         <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
         <v>251</v>
       </c>
       <c r="AH21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ21" t="n">
         <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN21" t="n">
         <v>3.5</v>
@@ -4313,7 +4313,7 @@
         <v>15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>29</v>
@@ -4322,10 +4322,10 @@
         <v>81</v>
       </c>
       <c r="AT21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4334,19 +4334,19 @@
         <v>501</v>
       </c>
       <c r="AX21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ21" t="n">
         <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
         <v>251</v>
@@ -4468,7 +4468,7 @@
         <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4963,10 +4963,10 @@
         <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4984,25 +4984,25 @@
         <v>12</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
         <v>12</v>
       </c>
       <c r="Z25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB25" t="n">
         <v>34</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>29</v>
       </c>
       <c r="AC25" t="n">
         <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -5014,19 +5014,19 @@
         <v>151</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>23</v>
@@ -5035,7 +5035,7 @@
         <v>5.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -5044,7 +5044,7 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS25" t="n">
         <v>151</v>
@@ -5062,16 +5062,16 @@
         <v>501</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB25" t="n">
         <v>51</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M26" t="n">
         <v>1.11</v>
@@ -5139,10 +5139,10 @@
         <v>6.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q26" t="n">
         <v>2.63</v>
@@ -5157,25 +5157,25 @@
         <v>2.25</v>
       </c>
       <c r="U26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="n">
         <v>13</v>
       </c>
-      <c r="Y26" t="n">
-        <v>12</v>
-      </c>
       <c r="Z26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA26" t="n">
         <v>34</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>29</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
@@ -5187,7 +5187,7 @@
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>67</v>
@@ -5196,16 +5196,16 @@
         <v>501</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
         <v>23</v>
@@ -5214,10 +5214,10 @@
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>34</v>
@@ -5226,10 +5226,10 @@
         <v>67</v>
       </c>
       <c r="AR26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT26" t="n">
         <v>2.25</v>
@@ -5244,7 +5244,7 @@
         <v>126</v>
       </c>
       <c r="AX26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY26" t="n">
         <v>15</v>
@@ -5259,7 +5259,7 @@
         <v>81</v>
       </c>
       <c r="BC26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD26" t="n">
         <v>126</v>
@@ -5297,28 +5297,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H27" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O27" t="n">
         <v>1.1</v>
@@ -5333,10 +5333,10 @@
         <v>3.4</v>
       </c>
       <c r="S27" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U27" t="n">
         <v>1.67</v>
@@ -5360,7 +5360,7 @@
         <v>10</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
         <v>26</v>
@@ -5378,13 +5378,13 @@
         <v>151</v>
       </c>
       <c r="AH27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
         <v>101</v>
@@ -5399,7 +5399,7 @@
         <v>3.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5408,13 +5408,13 @@
         <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU27" t="n">
         <v>8.5</v>
@@ -5444,7 +5444,7 @@
         <v>151</v>
       </c>
       <c r="BD27" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -5897,13 +5897,13 @@
         <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
         <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
         <v>29</v>
@@ -5924,7 +5924,7 @@
         <v>201</v>
       </c>
       <c r="AH30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -5939,10 +5939,10 @@
         <v>23</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO30" t="n">
         <v>13</v>
@@ -5972,13 +5972,13 @@
         <v>501</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
         <v>51</v>
@@ -6389,46 +6389,46 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="J33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U33" t="n">
         <v>1.67</v>
@@ -6437,28 +6437,28 @@
         <v>2.1</v>
       </c>
       <c r="W33" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
         <v>51</v>
       </c>
       <c r="AA33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB33" t="n">
         <v>34</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE33" t="n">
         <v>15</v>
@@ -6470,28 +6470,28 @@
         <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ33" t="n">
         <v>8.5</v>
       </c>
       <c r="AK33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL33" t="n">
         <v>12</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>11</v>
       </c>
       <c r="AM33" t="n">
         <v>21</v>
       </c>
       <c r="AN33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP33" t="n">
         <v>29</v>
@@ -6506,7 +6506,7 @@
         <v>151</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU33" t="n">
         <v>7.5</v>
@@ -6515,25 +6515,25 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX33" t="n">
         <v>3.75</v>
       </c>
       <c r="AY33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB33" t="n">
         <v>41</v>
       </c>
       <c r="BC33" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6589,10 +6589,10 @@
         <v>2.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -6935,40 +6935,40 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
         <v>4.2</v>
       </c>
       <c r="J36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.38</v>
       </c>
       <c r="L36" t="n">
         <v>4.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R36" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S36" t="n">
         <v>1.33</v>
@@ -6977,13 +6977,13 @@
         <v>3.25</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X36" t="n">
         <v>9</v>
@@ -6998,25 +6998,25 @@
         <v>13</v>
       </c>
       <c r="AB36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH36" t="n">
         <v>13</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>15</v>
       </c>
       <c r="AI36" t="n">
         <v>23</v>
@@ -7040,22 +7040,22 @@
         <v>9</v>
       </c>
       <c r="AP36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ36" t="n">
         <v>29</v>
       </c>
       <c r="AR36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT36" t="n">
         <v>3.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV36" t="n">
         <v>51</v>
@@ -7064,13 +7064,13 @@
         <v>81</v>
       </c>
       <c r="AX36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY36" t="n">
         <v>21</v>
       </c>
       <c r="AZ36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA36" t="n">
         <v>67</v>
@@ -7123,10 +7123,10 @@
         <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K37" t="n">
         <v>2.3</v>
@@ -7138,7 +7138,7 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O37" t="n">
         <v>1.22</v>
@@ -7147,10 +7147,10 @@
         <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
         <v>1.33</v>
@@ -7165,10 +7165,10 @@
         <v>2</v>
       </c>
       <c r="W37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y37" t="n">
         <v>15</v>
@@ -7186,7 +7186,7 @@
         <v>12</v>
       </c>
       <c r="AD37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI37" t="n">
         <v>8.5</v>
@@ -7249,13 +7249,13 @@
         <v>3.75</v>
       </c>
       <c r="AY37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ37" t="n">
         <v>19</v>
       </c>
       <c r="BA37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB37" t="n">
         <v>41</v>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J38" t="n">
         <v>3</v>
@@ -7356,7 +7356,7 @@
         <v>10</v>
       </c>
       <c r="Z38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA38" t="n">
         <v>21</v>
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
@@ -7583,7 +7583,7 @@
         <v>4</v>
       </c>
       <c r="AO39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP39" t="n">
         <v>29</v>
@@ -7601,7 +7601,7 @@
         <v>2.25</v>
       </c>
       <c r="AU39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV39" t="n">
         <v>81</v>
@@ -7619,7 +7619,7 @@
         <v>34</v>
       </c>
       <c r="BA39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB39" t="n">
         <v>126</v>
@@ -7807,7 +7807,7 @@
         <v>151</v>
       </c>
       <c r="BC40" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD40" t="n">
         <v>81</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
@@ -8057,49 +8057,49 @@
         <v>2.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R42" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S42" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T42" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V42" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB42" t="n">
         <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD42" t="n">
         <v>6</v>
       </c>
       <c r="AE42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF42" t="n">
         <v>67</v>
@@ -8114,7 +8114,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK42" t="n">
         <v>21</v>
@@ -8123,7 +8123,7 @@
         <v>21</v>
       </c>
       <c r="AM42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="n">
         <v>5</v>
@@ -8144,10 +8144,10 @@
         <v>301</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV42" t="n">
         <v>67</v>
@@ -8168,10 +8168,10 @@
         <v>41</v>
       </c>
       <c r="BB42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC42" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD42" t="n">
         <v>51</v>
@@ -8209,22 +8209,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
         <v>2.3</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -8257,19 +8257,19 @@
         <v>2.25</v>
       </c>
       <c r="W43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB43" t="n">
         <v>23</v>
@@ -8290,32 +8290,32 @@
         <v>126</v>
       </c>
       <c r="AH43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>11</v>
       </c>
-      <c r="AI43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>10</v>
-      </c>
       <c r="AK43" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP43" t="n">
         <v>19</v>
       </c>
-      <c r="AM43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ43" t="n">
         <v>41</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>51</v>
       </c>
       <c r="AS43" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT43" t="n">
         <v>3.25</v>
@@ -8338,16 +8338,16 @@
         <v>126</v>
       </c>
       <c r="AX43" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ43" t="n">
         <v>21</v>
       </c>
       <c r="BA43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB43" t="n">
         <v>51</v>
@@ -8624,13 +8624,13 @@
         <v>7</v>
       </c>
       <c r="X45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA45" t="n">
         <v>12</v>
@@ -8642,7 +8642,7 @@
         <v>12</v>
       </c>
       <c r="AD45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE45" t="n">
         <v>21</v>
@@ -8654,22 +8654,22 @@
         <v>1250</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK45" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL45" t="n">
         <v>67</v>
       </c>
       <c r="AM45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN45" t="n">
         <v>3.25</v>
@@ -8687,7 +8687,7 @@
         <v>41</v>
       </c>
       <c r="AS45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT45" t="n">
         <v>3.25</v>
@@ -8761,7 +8761,7 @@
         <v>2.9</v>
       </c>
       <c r="I46" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J46" t="n">
         <v>4.33</v>
@@ -8803,7 +8803,7 @@
         <v>1.57</v>
       </c>
       <c r="W46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X46" t="n">
         <v>15</v>
@@ -8836,7 +8836,7 @@
         <v>900</v>
       </c>
       <c r="AH46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI46" t="n">
         <v>9.5</v>
@@ -8845,7 +8845,7 @@
         <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL46" t="n">
         <v>23</v>
@@ -8863,7 +8863,7 @@
         <v>34</v>
       </c>
       <c r="AQ46" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR46" t="n">
         <v>126</v>
@@ -8884,7 +8884,7 @@
         <v>126</v>
       </c>
       <c r="AX46" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY46" t="n">
         <v>15</v>
@@ -8896,7 +8896,7 @@
         <v>51</v>
       </c>
       <c r="BB46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC46" t="n">
         <v>301</v>
@@ -8937,16 +8937,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K47" t="n">
         <v>1.95</v>
@@ -8955,10 +8955,10 @@
         <v>2.88</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>
@@ -9021,7 +9021,7 @@
         <v>6</v>
       </c>
       <c r="AI47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ47" t="n">
         <v>9.5</v>
@@ -9039,7 +9039,7 @@
         <v>5.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP47" t="n">
         <v>34</v>
@@ -9048,7 +9048,7 @@
         <v>81</v>
       </c>
       <c r="AR47" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS47" t="n">
         <v>301</v>
@@ -9119,22 +9119,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="H48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M48" t="n">
         <v>1.11</v>
@@ -9170,16 +9170,16 @@
         <v>6</v>
       </c>
       <c r="X48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB48" t="n">
         <v>41</v>
@@ -9200,19 +9200,19 @@
         <v>800</v>
       </c>
       <c r="AH48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK48" t="n">
         <v>34</v>
       </c>
       <c r="AL48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM48" t="n">
         <v>41</v>
@@ -9230,7 +9230,7 @@
         <v>51</v>
       </c>
       <c r="AR48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS48" t="n">
         <v>301</v>
@@ -9239,7 +9239,7 @@
         <v>2.25</v>
       </c>
       <c r="AU48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV48" t="n">
         <v>81</v>
@@ -9248,10 +9248,10 @@
         <v>126</v>
       </c>
       <c r="AX48" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ48" t="n">
         <v>34</v>
@@ -9260,7 +9260,7 @@
         <v>67</v>
       </c>
       <c r="BB48" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC48" t="n">
         <v>351</v>
@@ -9301,13 +9301,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J49" t="n">
         <v>3.5</v>
@@ -9316,7 +9316,7 @@
         <v>1.91</v>
       </c>
       <c r="L49" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M49" t="n">
         <v>1.1</v>
@@ -9331,10 +9331,10 @@
         <v>2.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R49" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S49" t="n">
         <v>1.57</v>
@@ -9388,13 +9388,13 @@
         <v>12</v>
       </c>
       <c r="AJ49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK49" t="n">
         <v>29</v>
       </c>
       <c r="AL49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM49" t="n">
         <v>41</v>
@@ -9695,10 +9695,10 @@
         <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -10393,22 +10393,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="J55" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K55" t="n">
         <v>2.25</v>
       </c>
       <c r="L55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M55" t="n">
         <v>1.04</v>
@@ -10429,10 +10429,10 @@
         <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U55" t="n">
         <v>1.67</v>
@@ -10444,22 +10444,22 @@
         <v>9</v>
       </c>
       <c r="X55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
       </c>
       <c r="Z55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB55" t="n">
         <v>23</v>
       </c>
       <c r="AC55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD55" t="n">
         <v>7</v>
@@ -10474,19 +10474,19 @@
         <v>151</v>
       </c>
       <c r="AH55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM55" t="n">
         <v>29</v>
@@ -10495,13 +10495,13 @@
         <v>4.33</v>
       </c>
       <c r="AO55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR55" t="n">
         <v>51</v>
@@ -10510,7 +10510,7 @@
         <v>126</v>
       </c>
       <c r="AT55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU55" t="n">
         <v>7.5</v>
@@ -10522,10 +10522,10 @@
         <v>501</v>
       </c>
       <c r="AX55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ55" t="n">
         <v>23</v>
@@ -10939,28 +10939,28 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="H58" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="J58" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K58" t="n">
         <v>2.05</v>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M58" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O58" t="n">
         <v>1.36</v>
@@ -10969,49 +10969,49 @@
         <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R58" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S58" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T58" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U58" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V58" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W58" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X58" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z58" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB58" t="n">
         <v>34</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF58" t="n">
         <v>51</v>
@@ -11020,34 +11020,34 @@
         <v>351</v>
       </c>
       <c r="AH58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI58" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK58" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM58" t="n">
         <v>34</v>
       </c>
-      <c r="AL58" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>41</v>
-      </c>
       <c r="AN58" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR58" t="n">
         <v>67</v>
@@ -11056,7 +11056,7 @@
         <v>201</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU58" t="n">
         <v>8.5</v>
@@ -11068,22 +11068,22 @@
         <v>51</v>
       </c>
       <c r="AX58" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ58" t="n">
         <v>29</v>
       </c>
       <c r="BA58" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB58" t="n">
         <v>81</v>
       </c>
       <c r="BC58" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD58" t="n">
         <v>51</v>
@@ -11121,13 +11121,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J59" t="n">
         <v>3.4</v>
@@ -11169,7 +11169,7 @@
         <v>1.83</v>
       </c>
       <c r="W59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X59" t="n">
         <v>13</v>
@@ -11178,7 +11178,7 @@
         <v>11</v>
       </c>
       <c r="Z59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA59" t="n">
         <v>23</v>
@@ -11199,16 +11199,16 @@
         <v>51</v>
       </c>
       <c r="AG59" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK59" t="n">
         <v>26</v>
@@ -11220,7 +11220,7 @@
         <v>34</v>
       </c>
       <c r="AN59" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO59" t="n">
         <v>15</v>
@@ -16945,7 +16945,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>3.6</v>
@@ -16981,10 +16981,10 @@
         <v>1.65</v>
       </c>
       <c r="S91" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T91" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U91" t="n">
         <v>2.1</v>
@@ -16993,7 +16993,7 @@
         <v>1.67</v>
       </c>
       <c r="W91" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X91" t="n">
         <v>7</v>
@@ -17005,7 +17005,7 @@
         <v>13</v>
       </c>
       <c r="AA91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB91" t="n">
         <v>34</v>
@@ -17017,7 +17017,7 @@
         <v>7</v>
       </c>
       <c r="AE91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF91" t="n">
         <v>67</v>
@@ -17044,7 +17044,7 @@
         <v>51</v>
       </c>
       <c r="AN91" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO91" t="n">
         <v>9.5</v>
@@ -17062,7 +17062,7 @@
         <v>201</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU91" t="n">
         <v>9</v>
@@ -17673,28 +17673,28 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H95" t="n">
         <v>3.7</v>
       </c>
       <c r="I95" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K95" t="n">
         <v>2.4</v>
       </c>
       <c r="L95" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M95" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O95" t="n">
         <v>1.14</v>
@@ -17703,10 +17703,10 @@
         <v>5.5</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R95" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S95" t="n">
         <v>1.25</v>
@@ -17727,13 +17727,13 @@
         <v>15</v>
       </c>
       <c r="Y95" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB95" t="n">
         <v>21</v>
@@ -17751,43 +17751,43 @@
         <v>29</v>
       </c>
       <c r="AG95" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH95" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI95" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK95" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM95" t="n">
         <v>21</v>
       </c>
       <c r="AN95" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP95" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ95" t="n">
         <v>41</v>
       </c>
       <c r="AR95" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS95" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT95" t="n">
         <v>3.75</v>
@@ -17802,10 +17802,10 @@
         <v>301</v>
       </c>
       <c r="AX95" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY95" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ95" t="n">
         <v>19</v>
@@ -19675,28 +19675,28 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H106" t="n">
         <v>3.1</v>
       </c>
       <c r="I106" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J106" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K106" t="n">
         <v>2.05</v>
       </c>
       <c r="L106" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M106" t="n">
         <v>1.07</v>
       </c>
       <c r="N106" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O106" t="n">
         <v>1.33</v>
@@ -19765,7 +19765,7 @@
         <v>10</v>
       </c>
       <c r="AK106" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL106" t="n">
         <v>21</v>
@@ -19810,7 +19810,7 @@
         <v>15</v>
       </c>
       <c r="AZ106" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA106" t="n">
         <v>51</v>
@@ -19857,46 +19857,46 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H107" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I107" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J107" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K107" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L107" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M107" t="n">
         <v>1.02</v>
       </c>
       <c r="N107" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O107" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P107" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R107" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S107" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T107" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U107" t="n">
         <v>1.83</v>
@@ -19905,19 +19905,19 @@
         <v>1.83</v>
       </c>
       <c r="W107" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X107" t="n">
         <v>7.5</v>
       </c>
       <c r="Y107" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z107" t="n">
         <v>8.5</v>
       </c>
       <c r="AA107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB107" t="n">
         <v>23</v>
@@ -19926,7 +19926,7 @@
         <v>19</v>
       </c>
       <c r="AD107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE107" t="n">
         <v>21</v>
@@ -19935,13 +19935,13 @@
         <v>51</v>
       </c>
       <c r="AG107" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH107" t="n">
         <v>26</v>
       </c>
       <c r="AI107" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ107" t="n">
         <v>26</v>
@@ -19959,22 +19959,22 @@
         <v>3.5</v>
       </c>
       <c r="AO107" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP107" t="n">
         <v>15</v>
       </c>
       <c r="AQ107" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR107" t="n">
         <v>34</v>
       </c>
       <c r="AS107" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT107" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU107" t="n">
         <v>9</v>
@@ -19986,7 +19986,7 @@
         <v>51</v>
       </c>
       <c r="AX107" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY107" t="n">
         <v>41</v>
@@ -20001,7 +20001,7 @@
         <v>151</v>
       </c>
       <c r="BC107" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD107" t="n">
         <v>51</v>
@@ -20039,28 +20039,28 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="H108" t="n">
         <v>3.1</v>
       </c>
       <c r="I108" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J108" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K108" t="n">
         <v>2</v>
       </c>
       <c r="L108" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M108" t="n">
         <v>1.08</v>
       </c>
       <c r="N108" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O108" t="n">
         <v>1.4</v>
@@ -20087,19 +20087,19 @@
         <v>1.8</v>
       </c>
       <c r="W108" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y108" t="n">
         <v>11</v>
       </c>
       <c r="Z108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA108" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB108" t="n">
         <v>41</v>
@@ -20120,28 +20120,28 @@
         <v>351</v>
       </c>
       <c r="AH108" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI108" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ108" t="n">
         <v>11</v>
       </c>
-      <c r="AJ108" t="n">
-        <v>10</v>
-      </c>
       <c r="AK108" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL108" t="n">
         <v>23</v>
       </c>
       <c r="AM108" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN108" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP108" t="n">
         <v>29</v>
@@ -20168,13 +20168,13 @@
         <v>51</v>
       </c>
       <c r="AX108" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY108" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ108" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA108" t="n">
         <v>51</v>
@@ -20183,7 +20183,7 @@
         <v>81</v>
       </c>
       <c r="BC108" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD108" t="n">
         <v>51</v>
@@ -20221,22 +20221,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="H109" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K109" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M109" t="n">
         <v>1.03</v>
@@ -20251,10 +20251,10 @@
         <v>4.33</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R109" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S109" t="n">
         <v>1.3</v>
@@ -20263,22 +20263,22 @@
         <v>3.4</v>
       </c>
       <c r="U109" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V109" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W109" t="n">
         <v>8</v>
       </c>
       <c r="X109" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y109" t="n">
         <v>8.5</v>
       </c>
       <c r="Z109" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA109" t="n">
         <v>12</v>
@@ -20290,10 +20290,10 @@
         <v>15</v>
       </c>
       <c r="AD109" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF109" t="n">
         <v>51</v>
@@ -20302,16 +20302,16 @@
         <v>201</v>
       </c>
       <c r="AH109" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ109" t="n">
         <v>17</v>
       </c>
-      <c r="AI109" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>19</v>
-      </c>
       <c r="AK109" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL109" t="n">
         <v>41</v>
@@ -20320,16 +20320,16 @@
         <v>41</v>
       </c>
       <c r="AN109" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP109" t="n">
         <v>17</v>
       </c>
       <c r="AQ109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR109" t="n">
         <v>41</v>
@@ -20341,7 +20341,7 @@
         <v>3.4</v>
       </c>
       <c r="AU109" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV109" t="n">
         <v>51</v>
@@ -20350,19 +20350,19 @@
         <v>51</v>
       </c>
       <c r="AX109" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY109" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ109" t="n">
         <v>29</v>
       </c>
-      <c r="AZ109" t="n">
-        <v>34</v>
-      </c>
       <c r="BA109" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB109" t="n">
         <v>101</v>
-      </c>
-      <c r="BB109" t="n">
-        <v>126</v>
       </c>
       <c r="BC109" t="n">
         <v>201</v>
@@ -23861,16 +23861,16 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H129" t="n">
         <v>4.75</v>
       </c>
       <c r="I129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J129" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K129" t="n">
         <v>2.5</v>
@@ -23903,16 +23903,16 @@
         <v>3.5</v>
       </c>
       <c r="U129" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V129" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W129" t="n">
         <v>8.5</v>
       </c>
       <c r="X129" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y129" t="n">
         <v>8.5</v>
@@ -23924,7 +23924,7 @@
         <v>11</v>
       </c>
       <c r="AB129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC129" t="n">
         <v>15</v>
@@ -23960,7 +23960,7 @@
         <v>41</v>
       </c>
       <c r="AN129" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO129" t="n">
         <v>7</v>
@@ -23981,7 +23981,7 @@
         <v>3.5</v>
       </c>
       <c r="AU129" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV129" t="n">
         <v>51</v>
@@ -23993,7 +23993,7 @@
         <v>8</v>
       </c>
       <c r="AY129" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ129" t="n">
         <v>34</v>
@@ -24002,7 +24002,7 @@
         <v>101</v>
       </c>
       <c r="BB129" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC129" t="n">
         <v>201</v>
@@ -24771,19 +24771,19 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="H134" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I134" t="n">
         <v>2.37</v>
       </c>
       <c r="J134" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K134" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L134" t="n">
         <v>3.05</v>
@@ -24810,49 +24810,49 @@
         <v>1.47</v>
       </c>
       <c r="T134" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="U134" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V134" t="n">
         <v>1.8</v>
       </c>
       <c r="W134" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="X134" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y134" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z134" t="n">
         <v>35</v>
       </c>
       <c r="AA134" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB134" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC134" t="n">
         <v>8.25</v>
       </c>
       <c r="AD134" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE134" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF134" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG134" t="n">
         <v>700</v>
       </c>
       <c r="AH134" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI134" t="n">
         <v>11</v>
@@ -24861,40 +24861,40 @@
         <v>9.5</v>
       </c>
       <c r="AK134" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL134" t="n">
         <v>21</v>
       </c>
       <c r="AM134" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN134" t="n">
         <v>4.65</v>
       </c>
       <c r="AO134" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP134" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ134" t="n">
         <v>80</v>
       </c>
       <c r="AR134" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS134" t="n">
         <v>400</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AU134" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV134" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW134" t="n">
         <v>51</v>
@@ -24906,13 +24906,13 @@
         <v>13</v>
       </c>
       <c r="AZ134" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA134" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB134" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC134" t="n">
         <v>350</v>
@@ -24953,22 +24953,22 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H135" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I135" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J135" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="K135" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L135" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="M135" t="n">
         <v>1.01</v>
@@ -24998,19 +24998,19 @@
         <v>1.78</v>
       </c>
       <c r="V135" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W135" t="n">
         <v>6.8</v>
       </c>
       <c r="X135" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y135" t="n">
         <v>8.25</v>
       </c>
       <c r="Z135" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA135" t="n">
         <v>15</v>
@@ -25022,10 +25022,10 @@
         <v>9</v>
       </c>
       <c r="AD135" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE135" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF135" t="n">
         <v>75</v>
@@ -25034,7 +25034,7 @@
         <v>600</v>
       </c>
       <c r="AH135" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI135" t="n">
         <v>22</v>
@@ -25049,31 +25049,31 @@
         <v>40</v>
       </c>
       <c r="AM135" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN135" t="n">
         <v>3.7</v>
       </c>
       <c r="AO135" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP135" t="n">
         <v>17</v>
       </c>
       <c r="AQ135" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR135" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS135" t="n">
         <v>200</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU135" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV135" t="n">
         <v>60</v>
@@ -25085,10 +25085,10 @@
         <v>5.8</v>
       </c>
       <c r="AY135" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ135" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA135" t="n">
         <v>120</v>
@@ -25159,7 +25159,7 @@
         <v>11.8</v>
       </c>
       <c r="O136" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P136" t="n">
         <v>3.5</v>
@@ -25168,7 +25168,7 @@
         <v>1.65</v>
       </c>
       <c r="R136" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S136" t="n">
         <v>1.33</v>
@@ -25177,13 +25177,13 @@
         <v>3.14</v>
       </c>
       <c r="U136" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V136" t="n">
         <v>2.05</v>
       </c>
       <c r="W136" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X136" t="n">
         <v>9.75</v>
@@ -25192,7 +25192,7 @@
         <v>8.5</v>
       </c>
       <c r="Z136" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA136" t="n">
         <v>14</v>
@@ -25216,7 +25216,7 @@
         <v>350</v>
       </c>
       <c r="AH136" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI136" t="n">
         <v>19.5</v>
@@ -25240,13 +25240,13 @@
         <v>9.25</v>
       </c>
       <c r="AP136" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ136" t="n">
         <v>32</v>
       </c>
       <c r="AR136" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS136" t="n">
         <v>200</v>
@@ -25317,28 +25317,28 @@
         </is>
       </c>
       <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="n">
         <v>2.8</v>
       </c>
-      <c r="H137" t="n">
-        <v>2.75</v>
-      </c>
       <c r="I137" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J137" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K137" t="n">
         <v>1.91</v>
       </c>
       <c r="L137" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M137" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N137" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O137" t="n">
         <v>1.53</v>
@@ -25371,13 +25371,13 @@
         <v>13</v>
       </c>
       <c r="Y137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z137" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA137" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB137" t="n">
         <v>41</v>
@@ -25398,16 +25398,16 @@
         <v>101</v>
       </c>
       <c r="AH137" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ137" t="n">
         <v>11</v>
       </c>
       <c r="AK137" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL137" t="n">
         <v>26</v>
@@ -25446,13 +25446,13 @@
         <v>51</v>
       </c>
       <c r="AX137" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY137" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ137" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA137" t="n">
         <v>51</v>
@@ -25461,7 +25461,7 @@
         <v>101</v>
       </c>
       <c r="BC137" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD137" t="n">
         <v>51</v>
@@ -27137,40 +27137,40 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H147" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I147" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J147" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K147" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L147" t="n">
         <v>5.5</v>
       </c>
       <c r="M147" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N147" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O147" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P147" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R147" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S147" t="n">
         <v>1.33</v>
@@ -27188,25 +27188,25 @@
         <v>7.5</v>
       </c>
       <c r="X147" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y147" t="n">
         <v>8.5</v>
       </c>
       <c r="Z147" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA147" t="n">
         <v>12</v>
-      </c>
-      <c r="AA147" t="n">
-        <v>13</v>
       </c>
       <c r="AB147" t="n">
         <v>23</v>
       </c>
       <c r="AC147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD147" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE147" t="n">
         <v>17</v>
@@ -27218,13 +27218,13 @@
         <v>251</v>
       </c>
       <c r="AH147" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI147" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK147" t="n">
         <v>51</v>
@@ -27239,13 +27239,13 @@
         <v>3.6</v>
       </c>
       <c r="AO147" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ147" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR147" t="n">
         <v>41</v>
@@ -27257,7 +27257,7 @@
         <v>3.25</v>
       </c>
       <c r="AU147" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV147" t="n">
         <v>51</v>
@@ -27266,7 +27266,7 @@
         <v>501</v>
       </c>
       <c r="AX147" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY147" t="n">
         <v>29</v>
@@ -27278,7 +27278,7 @@
         <v>101</v>
       </c>
       <c r="BB147" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC147" t="n">
         <v>201</v>
@@ -27695,28 +27695,28 @@
         <v>5.5</v>
       </c>
       <c r="K150" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L150" t="n">
         <v>2</v>
       </c>
       <c r="M150" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O150" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P150" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R150" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S150" t="n">
         <v>1.25</v>
@@ -27725,10 +27725,10 @@
         <v>3.75</v>
       </c>
       <c r="U150" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V150" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W150" t="n">
         <v>19</v>
@@ -27794,7 +27794,7 @@
         <v>81</v>
       </c>
       <c r="AR150" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS150" t="n">
         <v>151</v>
@@ -27821,7 +27821,7 @@
         <v>15</v>
       </c>
       <c r="BA150" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB150" t="n">
         <v>41</v>
@@ -28229,22 +28229,22 @@
         </is>
       </c>
       <c r="G153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K153" t="n">
         <v>2</v>
       </c>
-      <c r="H153" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J153" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K153" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L153" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M153" t="n">
         <v>1.08</v>
@@ -28253,67 +28253,67 @@
         <v>8</v>
       </c>
       <c r="O153" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P153" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R153" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S153" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T153" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U153" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V153" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W153" t="n">
         <v>6.5</v>
       </c>
       <c r="X153" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y153" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z153" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA153" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC153" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD153" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE153" t="n">
         <v>17</v>
       </c>
       <c r="AF153" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG153" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH153" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI153" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ153" t="n">
         <v>13</v>
@@ -28331,10 +28331,10 @@
         <v>4</v>
       </c>
       <c r="AO153" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP153" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ153" t="n">
         <v>41</v>
@@ -28346,7 +28346,7 @@
         <v>201</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU153" t="n">
         <v>8.5</v>
@@ -28367,7 +28367,7 @@
         <v>34</v>
       </c>
       <c r="BA153" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB153" t="n">
         <v>101</v>
@@ -28411,40 +28411,40 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H154" t="n">
         <v>9</v>
       </c>
       <c r="I154" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J154" t="n">
         <v>1.5</v>
       </c>
       <c r="K154" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L154" t="n">
         <v>12</v>
       </c>
       <c r="M154" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N154" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O154" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P154" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R154" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S154" t="n">
         <v>1.22</v>
@@ -28459,13 +28459,13 @@
         <v>1.57</v>
       </c>
       <c r="W154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X154" t="n">
         <v>6.5</v>
       </c>
       <c r="Y154" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z154" t="n">
         <v>6.5</v>
@@ -28492,22 +28492,22 @@
         <v>501</v>
       </c>
       <c r="AH154" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI154" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ154" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK154" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL154" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM154" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN154" t="n">
         <v>3.2</v>
@@ -28519,7 +28519,7 @@
         <v>17</v>
       </c>
       <c r="AQ154" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR154" t="n">
         <v>34</v>
@@ -28540,7 +28540,7 @@
         <v>126</v>
       </c>
       <c r="AX154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY154" t="n">
         <v>51</v>
@@ -29148,19 +29148,19 @@
         <v>3.3</v>
       </c>
       <c r="J158" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K158" t="n">
         <v>2.05</v>
       </c>
       <c r="L158" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M158" t="n">
         <v>1.07</v>
       </c>
       <c r="N158" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O158" t="n">
         <v>1.36</v>
@@ -29190,10 +29190,10 @@
         <v>6.5</v>
       </c>
       <c r="X158" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y158" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z158" t="n">
         <v>19</v>
@@ -29202,7 +29202,7 @@
         <v>19</v>
       </c>
       <c r="AB158" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC158" t="n">
         <v>8.5</v>
@@ -29220,7 +29220,7 @@
         <v>351</v>
       </c>
       <c r="AH158" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI158" t="n">
         <v>17</v>
@@ -29685,7 +29685,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H161" t="n">
         <v>2.88</v>
@@ -29706,7 +29706,7 @@
         <v>1.08</v>
       </c>
       <c r="N161" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O161" t="n">
         <v>1.36</v>
@@ -29721,10 +29721,10 @@
         <v>1.65</v>
       </c>
       <c r="S161" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T161" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U161" t="n">
         <v>1.83</v>
@@ -29733,7 +29733,7 @@
         <v>1.83</v>
       </c>
       <c r="W161" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X161" t="n">
         <v>17</v>
@@ -29742,7 +29742,7 @@
         <v>13</v>
       </c>
       <c r="Z161" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA161" t="n">
         <v>29</v>
@@ -29778,7 +29778,7 @@
         <v>21</v>
       </c>
       <c r="AL161" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM161" t="n">
         <v>34</v>
@@ -29802,7 +29802,7 @@
         <v>251</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU161" t="n">
         <v>8.5</v>
@@ -29820,7 +29820,7 @@
         <v>13</v>
       </c>
       <c r="AZ161" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA161" t="n">
         <v>41</v>
@@ -30231,22 +30231,22 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H164" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I164" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="J164" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K164" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L164" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="M164" t="n">
         <v>1.02</v>
@@ -30255,10 +30255,10 @@
         <v>12</v>
       </c>
       <c r="O164" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P164" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q164" t="n">
         <v>1.4</v>
@@ -30273,76 +30273,76 @@
         <v>4</v>
       </c>
       <c r="U164" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V164" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W164" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X164" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y164" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z164" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA164" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB164" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC164" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD164" t="n">
         <v>9.5</v>
       </c>
       <c r="AE164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF164" t="n">
         <v>34</v>
       </c>
       <c r="AG164" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH164" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI164" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ164" t="n">
         <v>9</v>
       </c>
       <c r="AK164" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL164" t="n">
         <v>12</v>
       </c>
       <c r="AM164" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN164" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO164" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP164" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ164" t="n">
         <v>51</v>
       </c>
       <c r="AR164" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS164" t="n">
         <v>101</v>
@@ -30351,7 +30351,7 @@
         <v>4</v>
       </c>
       <c r="AU164" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV164" t="n">
         <v>41</v>
@@ -30363,19 +30363,19 @@
         <v>4.33</v>
       </c>
       <c r="AY164" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ164" t="n">
         <v>15</v>
       </c>
       <c r="BA164" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB164" t="n">
         <v>34</v>
       </c>
       <c r="BC164" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD164" t="n">
         <v>81</v>
@@ -31323,73 +31323,73 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H170" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I170" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J170" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="K170" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="L170" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M170" t="n">
         <v>1.04</v>
       </c>
       <c r="N170" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O170" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P170" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R170" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S170" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T170" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U170" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="V170" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W170" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X170" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Y170" t="n">
         <v>9.75</v>
       </c>
       <c r="Z170" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA170" t="n">
         <v>11.5</v>
       </c>
       <c r="AB170" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC170" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD170" t="n">
         <v>11.75</v>
@@ -31404,34 +31404,34 @@
         <v>800</v>
       </c>
       <c r="AH170" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI170" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ170" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK170" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL170" t="n">
         <v>200</v>
       </c>
       <c r="AM170" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN170" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AO170" t="n">
         <v>5</v>
       </c>
       <c r="AP170" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ170" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AR170" t="n">
         <v>45</v>
@@ -31440,7 +31440,7 @@
         <v>300</v>
       </c>
       <c r="AT170" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU170" t="n">
         <v>10.5</v>
@@ -31452,10 +31452,10 @@
         <v>51</v>
       </c>
       <c r="AX170" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY170" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AZ170" t="n">
         <v>70</v>
@@ -31505,10 +31505,10 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H171" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I171" t="n">
         <v>3.05</v>
@@ -31520,13 +31520,13 @@
         <v>2.07</v>
       </c>
       <c r="L171" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M171" t="n">
         <v>1.08</v>
       </c>
       <c r="N171" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O171" t="n">
         <v>1.37</v>
@@ -31538,7 +31538,7 @@
         <v>2.1</v>
       </c>
       <c r="R171" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S171" t="n">
         <v>1.42</v>
@@ -31562,22 +31562,22 @@
         <v>9.75</v>
       </c>
       <c r="Z171" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA171" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB171" t="n">
         <v>35</v>
       </c>
       <c r="AC171" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD171" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE171" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF171" t="n">
         <v>80</v>
@@ -31589,16 +31589,16 @@
         <v>8.25</v>
       </c>
       <c r="AI171" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ171" t="n">
         <v>11.5</v>
       </c>
       <c r="AK171" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL171" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM171" t="n">
         <v>40</v>
@@ -31610,13 +31610,13 @@
         <v>12</v>
       </c>
       <c r="AP171" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ171" t="n">
         <v>50</v>
       </c>
       <c r="AR171" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS171" t="n">
         <v>250</v>
@@ -31625,7 +31625,7 @@
         <v>2.75</v>
       </c>
       <c r="AU171" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV171" t="n">
         <v>60</v>
@@ -31634,13 +31634,13 @@
         <v>51</v>
       </c>
       <c r="AX171" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AY171" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ171" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA171" t="n">
         <v>80</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="H172" t="n">
         <v>3.25</v>
@@ -31696,13 +31696,13 @@
         <v>2.47</v>
       </c>
       <c r="J172" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K172" t="n">
         <v>2.02</v>
       </c>
       <c r="L172" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M172" t="n">
         <v>1.07</v>
@@ -31714,7 +31714,7 @@
         <v>1.34</v>
       </c>
       <c r="P172" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q172" t="n">
         <v>2.05</v>
@@ -31735,19 +31735,19 @@
         <v>1.93</v>
       </c>
       <c r="W172" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X172" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y172" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z172" t="n">
         <v>35</v>
       </c>
       <c r="AA172" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB172" t="n">
         <v>37</v>
@@ -31768,22 +31768,22 @@
         <v>700</v>
       </c>
       <c r="AH172" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AI172" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ172" t="n">
         <v>10</v>
       </c>
       <c r="AK172" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL172" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM172" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN172" t="n">
         <v>4.65</v>
@@ -31792,13 +31792,13 @@
         <v>15.5</v>
       </c>
       <c r="AP172" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ172" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR172" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS172" t="n">
         <v>350</v>
@@ -31816,13 +31816,13 @@
         <v>51</v>
       </c>
       <c r="AX172" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AY172" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AZ172" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA172" t="n">
         <v>60</v>
@@ -31878,58 +31878,58 @@
         <v>3.5</v>
       </c>
       <c r="J173" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="K173" t="n">
         <v>2.07</v>
       </c>
       <c r="L173" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M173" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N173" t="n">
         <v>7.6</v>
       </c>
       <c r="O173" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P173" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q173" t="n">
         <v>1.95</v>
       </c>
       <c r="R173" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S173" t="n">
         <v>1.45</v>
       </c>
       <c r="T173" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U173" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V173" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W173" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X173" t="n">
         <v>10.25</v>
       </c>
       <c r="Y173" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z173" t="n">
         <v>19.5</v>
       </c>
       <c r="AA173" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB173" t="n">
         <v>30</v>
@@ -31938,7 +31938,7 @@
         <v>7.6</v>
       </c>
       <c r="AD173" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE173" t="n">
         <v>15.5</v>
@@ -31950,13 +31950,13 @@
         <v>600</v>
       </c>
       <c r="AH173" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AI173" t="n">
         <v>20</v>
       </c>
       <c r="AJ173" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK173" t="n">
         <v>55</v>
@@ -31965,13 +31965,13 @@
         <v>35</v>
       </c>
       <c r="AM173" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN173" t="n">
         <v>3.9</v>
       </c>
       <c r="AO173" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP173" t="n">
         <v>20</v>
@@ -32013,7 +32013,7 @@
         <v>150</v>
       </c>
       <c r="BC173" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD173" t="n">
         <v>51</v>
@@ -32051,127 +32051,127 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="H174" t="n">
-        <v>4.55</v>
+        <v>5.1</v>
       </c>
       <c r="I174" t="n">
-        <v>6.3</v>
+        <v>9.25</v>
       </c>
       <c r="J174" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="K174" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="L174" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="M174" t="n">
         <v>1.03</v>
       </c>
       <c r="N174" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="O174" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P174" t="n">
-        <v>4.45</v>
+        <v>4.9</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="R174" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="S174" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="T174" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="U174" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="V174" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W174" t="n">
+        <v>8</v>
+      </c>
+      <c r="X174" t="n">
         <v>7.8</v>
       </c>
-      <c r="X174" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Y174" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z174" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA174" t="n">
         <v>10.75</v>
-      </c>
-      <c r="AA174" t="n">
-        <v>11.5</v>
       </c>
       <c r="AB174" t="n">
         <v>24</v>
       </c>
       <c r="AC174" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AD174" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE174" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AF174" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG174" t="n">
         <v>500</v>
       </c>
       <c r="AH174" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI174" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AJ174" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AK174" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS174" t="n">
         <v>150</v>
       </c>
-      <c r="AL174" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM174" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN174" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO174" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AP174" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ174" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR174" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS174" t="n">
-        <v>175</v>
-      </c>
       <c r="AT174" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="AU174" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AV174" t="n">
         <v>60</v>
@@ -32180,22 +32180,22 @@
         <v>51</v>
       </c>
       <c r="AX174" t="n">
-        <v>7.7</v>
+        <v>9.75</v>
       </c>
       <c r="AY174" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AZ174" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="BA174" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="BB174" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC174" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD174" t="n">
         <v>51</v>
@@ -32233,22 +32233,22 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H175" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I175" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="J175" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="K175" t="n">
         <v>2.18</v>
       </c>
       <c r="L175" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="M175" t="n">
         <v>1.07</v>
@@ -32263,19 +32263,19 @@
         <v>2.92</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R175" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S175" t="n">
         <v>1.39</v>
       </c>
       <c r="T175" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U175" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V175" t="n">
         <v>1.8</v>
@@ -32284,19 +32284,19 @@
         <v>6.4</v>
       </c>
       <c r="X175" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y175" t="n">
         <v>8.5</v>
       </c>
       <c r="Z175" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA175" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA175" t="n">
-        <v>16</v>
-      </c>
       <c r="AB175" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC175" t="n">
         <v>6.8</v>
@@ -32317,25 +32317,25 @@
         <v>10.25</v>
       </c>
       <c r="AI175" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ175" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK175" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL175" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM175" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN175" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO175" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP175" t="n">
         <v>18</v>
@@ -32350,34 +32350,34 @@
         <v>250</v>
       </c>
       <c r="AT175" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU175" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV175" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW175" t="n">
         <v>51</v>
       </c>
       <c r="AX175" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AY175" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ175" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA175" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB175" t="n">
         <v>150</v>
       </c>
       <c r="BC175" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD175" t="n">
         <v>51</v>
@@ -32961,16 +32961,16 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H179" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I179" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J179" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K179" t="n">
         <v>2.38</v>
@@ -33012,13 +33012,13 @@
         <v>8</v>
       </c>
       <c r="X179" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y179" t="n">
         <v>8.5</v>
       </c>
       <c r="Z179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA179" t="n">
         <v>13</v>
@@ -33036,7 +33036,7 @@
         <v>15</v>
       </c>
       <c r="AF179" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG179" t="n">
         <v>201</v>
@@ -33045,16 +33045,16 @@
         <v>15</v>
       </c>
       <c r="AI179" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ179" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK179" t="n">
         <v>51</v>
       </c>
       <c r="AL179" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM179" t="n">
         <v>41</v>
@@ -33063,7 +33063,7 @@
         <v>3.75</v>
       </c>
       <c r="AO179" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP179" t="n">
         <v>17</v>
@@ -33075,7 +33075,7 @@
         <v>41</v>
       </c>
       <c r="AS179" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT179" t="n">
         <v>3.25</v>
@@ -33090,10 +33090,10 @@
         <v>81</v>
       </c>
       <c r="AX179" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY179" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ179" t="n">
         <v>29</v>
@@ -33105,7 +33105,7 @@
         <v>101</v>
       </c>
       <c r="BC179" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD179" t="n">
         <v>81</v>
@@ -33143,10 +33143,10 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H180" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I180" t="n">
         <v>3.1</v>
@@ -33155,28 +33155,28 @@
         <v>3</v>
       </c>
       <c r="K180" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L180" t="n">
         <v>3.6</v>
       </c>
       <c r="M180" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N180" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O180" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P180" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q180" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="R180" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S180" t="n">
         <v>1.4</v>
@@ -33185,16 +33185,16 @@
         <v>2.75</v>
       </c>
       <c r="U180" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V180" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W180" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X180" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y180" t="n">
         <v>9.5</v>
@@ -33206,10 +33206,10 @@
         <v>19</v>
       </c>
       <c r="AB180" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC180" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD180" t="n">
         <v>6</v>
@@ -33224,10 +33224,10 @@
         <v>201</v>
       </c>
       <c r="AH180" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI180" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ180" t="n">
         <v>12</v>
@@ -33236,7 +33236,7 @@
         <v>34</v>
       </c>
       <c r="AL180" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM180" t="n">
         <v>34</v>
@@ -33248,13 +33248,13 @@
         <v>13</v>
       </c>
       <c r="AP180" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ180" t="n">
         <v>41</v>
       </c>
       <c r="AR180" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS180" t="n">
         <v>151</v>
@@ -33263,7 +33263,7 @@
         <v>2.75</v>
       </c>
       <c r="AU180" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV180" t="n">
         <v>51</v>
@@ -33278,16 +33278,16 @@
         <v>17</v>
       </c>
       <c r="AZ180" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA180" t="n">
         <v>51</v>
       </c>
       <c r="BB180" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC180" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD180" t="n">
         <v>81</v>
@@ -33325,22 +33325,22 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="H181" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I181" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J181" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K181" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L181" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M181" t="n">
         <v>1.1</v>
@@ -33349,16 +33349,16 @@
         <v>7</v>
       </c>
       <c r="O181" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P181" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q181" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R181" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S181" t="n">
         <v>1.53</v>
@@ -33367,22 +33367,22 @@
         <v>2.38</v>
       </c>
       <c r="U181" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V181" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W181" t="n">
         <v>5</v>
       </c>
       <c r="X181" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y181" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z181" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA181" t="n">
         <v>17</v>
@@ -33391,13 +33391,13 @@
         <v>41</v>
       </c>
       <c r="AC181" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD181" t="n">
         <v>7</v>
       </c>
       <c r="AE181" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF181" t="n">
         <v>81</v>
@@ -33406,16 +33406,16 @@
         <v>301</v>
       </c>
       <c r="AH181" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI181" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ181" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK181" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL181" t="n">
         <v>51</v>
@@ -33424,16 +33424,16 @@
         <v>51</v>
       </c>
       <c r="AN181" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO181" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP181" t="n">
         <v>26</v>
       </c>
       <c r="AQ181" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR181" t="n">
         <v>67</v>
@@ -33454,7 +33454,7 @@
         <v>81</v>
       </c>
       <c r="AX181" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY181" t="n">
         <v>34</v>
@@ -33463,10 +33463,10 @@
         <v>41</v>
       </c>
       <c r="BA181" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB181" t="n">
         <v>151</v>
-      </c>
-      <c r="BB181" t="n">
-        <v>201</v>
       </c>
       <c r="BC181" t="n">
         <v>201</v>
@@ -34969,7 +34969,7 @@
         <v>4.5</v>
       </c>
       <c r="I190" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J190" t="n">
         <v>2</v>
@@ -35011,7 +35011,7 @@
         <v>1.83</v>
       </c>
       <c r="W190" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X190" t="n">
         <v>7</v>
@@ -35065,7 +35065,7 @@
         <v>3.5</v>
       </c>
       <c r="AO190" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP190" t="n">
         <v>17</v>
@@ -35244,7 +35244,7 @@
         <v>23</v>
       </c>
       <c r="AN191" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO191" t="n">
         <v>17</v>
@@ -36792,19 +36792,19 @@
         <v>4.1</v>
       </c>
       <c r="J200" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K200" t="n">
         <v>2.2</v>
       </c>
       <c r="L200" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M200" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N200" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O200" t="n">
         <v>1.29</v>
@@ -36834,7 +36834,7 @@
         <v>7.5</v>
       </c>
       <c r="X200" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y200" t="n">
         <v>8.5</v>
@@ -36849,10 +36849,10 @@
         <v>26</v>
       </c>
       <c r="AC200" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD200" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE200" t="n">
         <v>15</v>
@@ -36861,16 +36861,16 @@
         <v>51</v>
       </c>
       <c r="AG200" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH200" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI200" t="n">
         <v>21</v>
       </c>
       <c r="AJ200" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK200" t="n">
         <v>41</v>
@@ -36882,10 +36882,10 @@
         <v>41</v>
       </c>
       <c r="AN200" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO200" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP200" t="n">
         <v>21</v>
@@ -36915,16 +36915,16 @@
         <v>6</v>
       </c>
       <c r="AY200" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ200" t="n">
         <v>29</v>
       </c>
       <c r="BA200" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB200" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC200" t="n">
         <v>201</v>
@@ -37693,28 +37693,28 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H205" t="n">
         <v>3</v>
       </c>
       <c r="I205" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J205" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K205" t="n">
         <v>1.95</v>
       </c>
       <c r="L205" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M205" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N205" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O205" t="n">
         <v>1.5</v>
@@ -37744,10 +37744,10 @@
         <v>6</v>
       </c>
       <c r="X205" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y205" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z205" t="n">
         <v>19</v>
@@ -37774,31 +37774,31 @@
         <v>201</v>
       </c>
       <c r="AH205" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI205" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ205" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK205" t="n">
         <v>41</v>
       </c>
       <c r="AL205" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM205" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN205" t="n">
         <v>4</v>
       </c>
       <c r="AO205" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP205" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ205" t="n">
         <v>41</v>
@@ -37825,7 +37825,7 @@
         <v>5.5</v>
       </c>
       <c r="AY205" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ205" t="n">
         <v>34</v>
@@ -37878,52 +37878,52 @@
         <v>3</v>
       </c>
       <c r="H206" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I206" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J206" t="n">
         <v>3.75</v>
       </c>
       <c r="K206" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L206" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M206" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N206" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O206" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P206" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q206" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R206" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S206" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T206" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U206" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V206" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W206" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X206" t="n">
         <v>13</v>
@@ -37932,7 +37932,7 @@
         <v>12</v>
       </c>
       <c r="Z206" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA206" t="n">
         <v>29</v>
@@ -37941,16 +37941,16 @@
         <v>41</v>
       </c>
       <c r="AC206" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD206" t="n">
         <v>5.5</v>
       </c>
       <c r="AE206" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF206" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG206" t="n">
         <v>351</v>
@@ -37959,7 +37959,7 @@
         <v>7</v>
       </c>
       <c r="AI206" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ206" t="n">
         <v>11</v>
@@ -37968,7 +37968,7 @@
         <v>26</v>
       </c>
       <c r="AL206" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM206" t="n">
         <v>41</v>
@@ -37977,25 +37977,25 @@
         <v>4.75</v>
       </c>
       <c r="AO206" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP206" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ206" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR206" t="n">
         <v>101</v>
       </c>
       <c r="AS206" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT206" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU206" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV206" t="n">
         <v>67</v>
@@ -38060,19 +38060,19 @@
         <v>2.38</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J207" t="n">
         <v>3.2</v>
       </c>
       <c r="K207" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L207" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M207" t="n">
         <v>1.08</v>
@@ -38081,16 +38081,16 @@
         <v>8</v>
       </c>
       <c r="O207" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P207" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R207" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S207" t="n">
         <v>1.5</v>
@@ -38099,13 +38099,13 @@
         <v>2.5</v>
       </c>
       <c r="U207" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V207" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W207" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X207" t="n">
         <v>11</v>
@@ -38123,7 +38123,7 @@
         <v>34</v>
       </c>
       <c r="AC207" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD207" t="n">
         <v>6</v>
@@ -38138,7 +38138,7 @@
         <v>301</v>
       </c>
       <c r="AH207" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI207" t="n">
         <v>15</v>
@@ -38150,7 +38150,7 @@
         <v>34</v>
       </c>
       <c r="AL207" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM207" t="n">
         <v>41</v>
@@ -38168,10 +38168,10 @@
         <v>51</v>
       </c>
       <c r="AR207" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS207" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT207" t="n">
         <v>2.5</v>
@@ -38180,7 +38180,7 @@
         <v>8.5</v>
       </c>
       <c r="AV207" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW207" t="n">
         <v>51</v>
@@ -38189,7 +38189,7 @@
         <v>4.75</v>
       </c>
       <c r="AY207" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ207" t="n">
         <v>29</v>
@@ -38201,7 +38201,7 @@
         <v>81</v>
       </c>
       <c r="BC207" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD207" t="n">
         <v>51</v>
@@ -38275,16 +38275,16 @@
         <v>2.4</v>
       </c>
       <c r="S208" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T208" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U208" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V208" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W208" t="n">
         <v>12</v>
@@ -38305,7 +38305,7 @@
         <v>19</v>
       </c>
       <c r="AC208" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD208" t="n">
         <v>7.5</v>
@@ -38356,7 +38356,7 @@
         <v>81</v>
       </c>
       <c r="AT208" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU208" t="n">
         <v>7</v>
@@ -38377,7 +38377,7 @@
         <v>19</v>
       </c>
       <c r="BA208" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB208" t="n">
         <v>51</v>
@@ -38809,16 +38809,16 @@
         <v>21</v>
       </c>
       <c r="O211" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P211" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q211" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R211" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S211" t="n">
         <v>1.22</v>
@@ -39149,7 +39149,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H213" t="n">
         <v>4</v>
@@ -39161,7 +39161,7 @@
         <v>2.75</v>
       </c>
       <c r="K213" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L213" t="n">
         <v>3.1</v>
@@ -39173,16 +39173,16 @@
         <v>23</v>
       </c>
       <c r="O213" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P213" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R213" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S213" t="n">
         <v>1.22</v>
@@ -39191,16 +39191,16 @@
         <v>4</v>
       </c>
       <c r="U213" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V213" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W213" t="n">
         <v>15</v>
       </c>
       <c r="X213" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y213" t="n">
         <v>10</v>
@@ -39212,28 +39212,28 @@
         <v>15</v>
       </c>
       <c r="AB213" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC213" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD213" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE213" t="n">
         <v>11</v>
       </c>
       <c r="AF213" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG213" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH213" t="n">
         <v>17</v>
       </c>
       <c r="AI213" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ213" t="n">
         <v>11</v>
@@ -39245,13 +39245,13 @@
         <v>19</v>
       </c>
       <c r="AM213" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN213" t="n">
         <v>5</v>
       </c>
       <c r="AO213" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP213" t="n">
         <v>15</v>
@@ -39263,7 +39263,7 @@
         <v>41</v>
       </c>
       <c r="AS213" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT213" t="n">
         <v>4</v>
@@ -39296,7 +39296,7 @@
         <v>81</v>
       </c>
       <c r="BD213" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="214">
@@ -40206,7 +40206,7 @@
         <v>81</v>
       </c>
       <c r="BD218" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="219">
@@ -40426,19 +40426,19 @@
         <v>1.42</v>
       </c>
       <c r="H220" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I220" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L220" t="n">
         <v>6.4</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K220" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L220" t="n">
-        <v>6.3</v>
       </c>
       <c r="M220" t="n">
         <v>1.05</v>
@@ -40447,28 +40447,28 @@
         <v>7.8</v>
       </c>
       <c r="O220" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P220" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q220" t="n">
         <v>1.8</v>
       </c>
       <c r="R220" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S220" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T220" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="U220" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V220" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W220" t="n">
         <v>6.4</v>
@@ -40477,7 +40477,7 @@
         <v>6.3</v>
       </c>
       <c r="Y220" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z220" t="n">
         <v>9</v>
@@ -40495,28 +40495,28 @@
         <v>8.5</v>
       </c>
       <c r="AE220" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF220" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG220" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AH220" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI220" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ220" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK220" t="n">
         <v>150</v>
       </c>
       <c r="AL220" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM220" t="n">
         <v>75</v>
@@ -40525,25 +40525,25 @@
         <v>3.2</v>
       </c>
       <c r="AO220" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AP220" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ220" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR220" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS220" t="n">
         <v>250</v>
       </c>
       <c r="AT220" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU220" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV220" t="n">
         <v>90</v>
@@ -40552,7 +40552,7 @@
         <v>51</v>
       </c>
       <c r="AX220" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AY220" t="n">
         <v>40</v>
@@ -40605,22 +40605,22 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="H221" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I221" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="J221" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="K221" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L221" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M221" t="n">
         <v>1.04</v>
@@ -40629,52 +40629,52 @@
         <v>8.25</v>
       </c>
       <c r="O221" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P221" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q221" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R221" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S221" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T221" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U221" t="n">
         <v>1.55</v>
       </c>
       <c r="V221" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W221" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="X221" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y221" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z221" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA221" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AB221" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC221" t="n">
         <v>8.25</v>
       </c>
       <c r="AD221" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE221" t="n">
         <v>11.75</v>
@@ -40686,64 +40686,64 @@
         <v>250</v>
       </c>
       <c r="AH221" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AI221" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ221" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK221" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL221" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM221" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN221" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AO221" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AP221" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ221" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR221" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS221" t="n">
         <v>175</v>
       </c>
       <c r="AT221" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU221" t="n">
         <v>6.5</v>
       </c>
       <c r="AV221" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW221" t="n">
         <v>51</v>
       </c>
       <c r="AX221" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="AY221" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AZ221" t="n">
         <v>19</v>
       </c>
       <c r="BA221" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB221" t="n">
         <v>80</v>
@@ -40787,22 +40787,22 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H222" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I222" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="J222" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K222" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L222" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="M222" t="n">
         <v>1.04</v>
@@ -40811,7 +40811,7 @@
         <v>8.25</v>
       </c>
       <c r="O222" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P222" t="n">
         <v>3.8</v>
@@ -40823,31 +40823,31 @@
         <v>2.07</v>
       </c>
       <c r="S222" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T222" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U222" t="n">
         <v>1.62</v>
       </c>
       <c r="V222" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W222" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X222" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y222" t="n">
         <v>11.75</v>
-      </c>
-      <c r="X222" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y222" t="n">
-        <v>11.5</v>
       </c>
       <c r="Z222" t="n">
         <v>45</v>
       </c>
       <c r="AA222" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB222" t="n">
         <v>30</v>
@@ -40856,7 +40856,7 @@
         <v>8.25</v>
       </c>
       <c r="AD222" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE222" t="n">
         <v>13</v>
@@ -40865,31 +40865,31 @@
         <v>50</v>
       </c>
       <c r="AG222" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH222" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI222" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AJ222" t="n">
         <v>8.5</v>
       </c>
       <c r="AK222" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL222" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM222" t="n">
         <v>22</v>
       </c>
       <c r="AN222" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO222" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP222" t="n">
         <v>23</v>
@@ -40904,7 +40904,7 @@
         <v>250</v>
       </c>
       <c r="AT222" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU222" t="n">
         <v>6.9</v>
@@ -40916,22 +40916,22 @@
         <v>51</v>
       </c>
       <c r="AX222" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AY222" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ222" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BA222" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB222" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BC222" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD222" t="n">
         <v>51</v>
@@ -40981,10 +40981,10 @@
         <v>9</v>
       </c>
       <c r="K223" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L223" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="M223" t="n">
         <v>1.05</v>
@@ -40993,7 +40993,7 @@
         <v>7.6</v>
       </c>
       <c r="O223" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P223" t="n">
         <v>3.4</v>
@@ -41002,22 +41002,22 @@
         <v>1.83</v>
       </c>
       <c r="R223" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S223" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T223" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U223" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="V223" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W223" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X223" t="n">
         <v>80</v>
@@ -41056,7 +41056,7 @@
         <v>5.3</v>
       </c>
       <c r="AJ223" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK223" t="n">
         <v>7.1</v>
@@ -41086,7 +41086,7 @@
         <v>500</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU223" t="n">
         <v>10</v>
@@ -41098,7 +41098,7 @@
         <v>51</v>
       </c>
       <c r="AX223" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AY223" t="n">
         <v>5.7</v>
@@ -41107,7 +41107,7 @@
         <v>20</v>
       </c>
       <c r="BA223" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BB223" t="n">
         <v>55</v>
@@ -41151,22 +41151,22 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="H224" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I224" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="J224" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="K224" t="n">
         <v>2.25</v>
       </c>
       <c r="L224" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M224" t="n">
         <v>1.04</v>
@@ -41196,22 +41196,22 @@
         <v>1.53</v>
       </c>
       <c r="V224" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="W224" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="X224" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y224" t="n">
         <v>8.75</v>
       </c>
       <c r="Z224" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA224" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB224" t="n">
         <v>21</v>
@@ -41220,7 +41220,7 @@
         <v>8.5</v>
       </c>
       <c r="AD224" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE224" t="n">
         <v>11.75</v>
@@ -41232,34 +41232,34 @@
         <v>250</v>
       </c>
       <c r="AH224" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI224" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ224" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK224" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ224" t="n">
         <v>40</v>
-      </c>
-      <c r="AL224" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM224" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN224" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO224" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP224" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ224" t="n">
-        <v>37</v>
       </c>
       <c r="AR224" t="n">
         <v>60</v>
@@ -41280,16 +41280,16 @@
         <v>51</v>
       </c>
       <c r="AX224" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AY224" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AZ224" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA224" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB224" t="n">
         <v>90</v>
@@ -41339,7 +41339,7 @@
         <v>4.05</v>
       </c>
       <c r="I225" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="J225" t="n">
         <v>2.07</v>
@@ -41366,7 +41366,7 @@
         <v>1.7</v>
       </c>
       <c r="R225" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="S225" t="n">
         <v>1.33</v>
@@ -41393,7 +41393,7 @@
         <v>11.25</v>
       </c>
       <c r="AA225" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB225" t="n">
         <v>23</v>
@@ -41411,7 +41411,7 @@
         <v>65</v>
       </c>
       <c r="AG225" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH225" t="n">
         <v>15.5</v>
@@ -41477,7 +41477,7 @@
         <v>175</v>
       </c>
       <c r="BC225" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD225" t="n">
         <v>51</v>
@@ -41515,151 +41515,151 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="H226" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I226" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J226" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="K226" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L226" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M226" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N226" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O226" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P226" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R226" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T226" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V226" t="n">
         <v>1.93</v>
       </c>
-      <c r="R226" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S226" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T226" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U226" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V226" t="n">
-        <v>2.02</v>
-      </c>
       <c r="W226" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="X226" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="Y226" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z226" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA226" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY226" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB226" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC226" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD226" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE226" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF226" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG226" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH226" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI226" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ226" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK226" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL226" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM226" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN226" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO226" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP226" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ226" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR226" t="n">
+      <c r="AZ226" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA226" t="n">
         <v>90</v>
       </c>
-      <c r="AS226" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT226" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU226" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV226" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW226" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX226" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY226" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ226" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA226" t="n">
-        <v>80</v>
-      </c>
       <c r="BB226" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC226" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD226" t="n">
         <v>51</v>
@@ -41697,7 +41697,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H227" t="n">
         <v>3.15</v>
@@ -41706,10 +41706,10 @@
         <v>2.12</v>
       </c>
       <c r="J227" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K227" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L227" t="n">
         <v>2.77</v>
@@ -41724,7 +41724,7 @@
         <v>1.39</v>
       </c>
       <c r="P227" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q227" t="n">
         <v>2.15</v>
@@ -41733,10 +41733,10 @@
         <v>1.65</v>
       </c>
       <c r="S227" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T227" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U227" t="n">
         <v>1.91</v>
@@ -41799,7 +41799,7 @@
         <v>5.1</v>
       </c>
       <c r="AO227" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP227" t="n">
         <v>28</v>
@@ -41814,13 +41814,13 @@
         <v>400</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU227" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV227" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW227" t="n">
         <v>51</v>
@@ -41882,25 +41882,25 @@
         <v>1.57</v>
       </c>
       <c r="H228" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I228" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="J228" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K228" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L228" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M228" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N228" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O228" t="n">
         <v>1.24</v>
@@ -41909,31 +41909,31 @@
         <v>3.65</v>
       </c>
       <c r="Q228" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R228" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S228" t="n">
         <v>1.35</v>
       </c>
       <c r="T228" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U228" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V228" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W228" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X228" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Y228" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z228" t="n">
         <v>11.5</v>
@@ -41942,16 +41942,16 @@
         <v>12</v>
       </c>
       <c r="AB228" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC228" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD228" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AE228" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF228" t="n">
         <v>70</v>
@@ -41960,10 +41960,10 @@
         <v>500</v>
       </c>
       <c r="AH228" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI228" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ228" t="n">
         <v>16</v>
@@ -41972,7 +41972,7 @@
         <v>90</v>
       </c>
       <c r="AL228" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM228" t="n">
         <v>50</v>
@@ -41981,13 +41981,13 @@
         <v>3.45</v>
       </c>
       <c r="AO228" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AP228" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ228" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR228" t="n">
         <v>50</v>
@@ -41996,10 +41996,10 @@
         <v>200</v>
       </c>
       <c r="AT228" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU228" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV228" t="n">
         <v>70</v>
@@ -42064,7 +42064,7 @@
         <v>3.2</v>
       </c>
       <c r="H229" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I229" t="n">
         <v>2.37</v>
@@ -42097,10 +42097,10 @@
         <v>1.53</v>
       </c>
       <c r="S229" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T229" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="U229" t="n">
         <v>1.83</v>
@@ -42109,7 +42109,7 @@
         <v>1.78</v>
       </c>
       <c r="W229" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X229" t="n">
         <v>16.5</v>
@@ -42142,7 +42142,7 @@
         <v>700</v>
       </c>
       <c r="AH229" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI229" t="n">
         <v>10.75</v>
@@ -42160,13 +42160,13 @@
         <v>37</v>
       </c>
       <c r="AN229" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO229" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP229" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ229" t="n">
         <v>90</v>
@@ -42175,22 +42175,22 @@
         <v>120</v>
       </c>
       <c r="AS229" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT229" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AU229" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV229" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW229" t="n">
         <v>51</v>
       </c>
       <c r="AX229" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AY229" t="n">
         <v>13</v>
@@ -42243,22 +42243,22 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="H230" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I230" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="J230" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="K230" t="n">
         <v>2</v>
       </c>
       <c r="L230" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M230" t="n">
         <v>1.01</v>
@@ -42291,19 +42291,19 @@
         <v>1.93</v>
       </c>
       <c r="W230" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="X230" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y230" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z230" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA230" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB230" t="n">
         <v>29</v>
@@ -42312,7 +42312,7 @@
         <v>8</v>
       </c>
       <c r="AD230" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE230" t="n">
         <v>12.5</v>
@@ -42324,28 +42324,28 @@
         <v>450</v>
       </c>
       <c r="AH230" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AI230" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AJ230" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK230" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AL230" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM230" t="n">
         <v>35</v>
       </c>
       <c r="AN230" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="AO230" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP230" t="n">
         <v>18</v>
@@ -42363,31 +42363,31 @@
         <v>2.55</v>
       </c>
       <c r="AU230" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV230" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW230" t="n">
         <v>51</v>
       </c>
       <c r="AX230" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AY230" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ230" t="n">
         <v>21</v>
       </c>
       <c r="BA230" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB230" t="n">
         <v>100</v>
       </c>
       <c r="BC230" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD230" t="n">
         <v>51</v>
@@ -42428,19 +42428,19 @@
         <v>1.42</v>
       </c>
       <c r="H231" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I231" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J231" t="n">
         <v>1.91</v>
       </c>
       <c r="K231" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L231" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M231" t="n">
         <v>1.01</v>
@@ -42467,16 +42467,16 @@
         <v>2.52</v>
       </c>
       <c r="U231" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V231" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W231" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X231" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y231" t="n">
         <v>8.25</v>
@@ -42497,16 +42497,16 @@
         <v>8.25</v>
       </c>
       <c r="AE231" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF231" t="n">
         <v>110</v>
       </c>
       <c r="AG231" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH231" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI231" t="n">
         <v>45</v>
@@ -42527,7 +42527,7 @@
         <v>3.15</v>
       </c>
       <c r="AO231" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AP231" t="n">
         <v>17</v>
@@ -42545,7 +42545,7 @@
         <v>2.62</v>
       </c>
       <c r="AU231" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV231" t="n">
         <v>90</v>
@@ -42554,7 +42554,7 @@
         <v>51</v>
       </c>
       <c r="AX231" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AY231" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-05.xlsx
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2433,10 +2433,10 @@
         <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -2451,7 +2451,7 @@
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2463,7 +2463,7 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
         <v>10</v>
@@ -2472,13 +2472,13 @@
         <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
         <v>23</v>
@@ -2493,7 +2493,7 @@
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2514,7 +2514,7 @@
         <v>451</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
@@ -3847,16 +3847,16 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
         <v>1.8</v>
       </c>
       <c r="K19" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3871,25 +3871,25 @@
         <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
         <v>6.5</v>
@@ -3904,7 +3904,7 @@
         <v>11</v>
       </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
@@ -3916,13 +3916,13 @@
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>41</v>
@@ -3958,16 +3958,16 @@
         <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX19" t="n">
         <v>9.5</v>
@@ -3979,13 +3979,13 @@
         <v>41</v>
       </c>
       <c r="BA19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H22" t="n">
         <v>5</v>
@@ -4396,7 +4396,7 @@
         <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K22" t="n">
         <v>2.63</v>
@@ -4417,10 +4417,10 @@
         <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S22" t="n">
         <v>1.25</v>
@@ -4435,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X22" t="n">
         <v>8</v>
@@ -4456,19 +4456,19 @@
         <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -4486,7 +4486,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO22" t="n">
         <v>6.5</v>
@@ -4501,7 +4501,7 @@
         <v>34</v>
       </c>
       <c r="AS22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT22" t="n">
         <v>3.75</v>
@@ -4513,7 +4513,7 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX22" t="n">
         <v>8.5</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H27" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -5321,31 +5321,31 @@
         <v>23</v>
       </c>
       <c r="O27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X27" t="n">
         <v>9</v>
@@ -5360,10 +5360,10 @@
         <v>10</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD27" t="n">
         <v>13</v>
@@ -5378,13 +5378,13 @@
         <v>151</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
         <v>101</v>
@@ -5399,7 +5399,7 @@
         <v>3.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5408,13 +5408,13 @@
         <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU27" t="n">
         <v>8.5</v>
@@ -5423,7 +5423,7 @@
         <v>41</v>
       </c>
       <c r="AW27" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX27" t="n">
         <v>10</v>
@@ -5444,7 +5444,7 @@
         <v>151</v>
       </c>
       <c r="BD27" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -6586,7 +6586,7 @@
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -6595,16 +6595,16 @@
         <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R34" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S34" t="n">
         <v>1.44</v>
@@ -6625,10 +6625,10 @@
         <v>17</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="n">
         <v>29</v>
@@ -6661,16 +6661,16 @@
         <v>9</v>
       </c>
       <c r="AK34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL34" t="n">
         <v>19</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>17</v>
       </c>
       <c r="AM34" t="n">
         <v>29</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO34" t="n">
         <v>19</v>
@@ -6706,19 +6706,19 @@
         <v>12</v>
       </c>
       <c r="AZ34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA34" t="n">
         <v>41</v>
       </c>
       <c r="BB34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC34" t="n">
         <v>151</v>
       </c>
       <c r="BD34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
@@ -7299,28 +7299,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
         <v>1.95</v>
       </c>
       <c r="L38" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
         <v>1.5</v>
@@ -7341,16 +7341,16 @@
         <v>2.25</v>
       </c>
       <c r="U38" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V38" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W38" t="n">
         <v>6</v>
       </c>
       <c r="X38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -7383,13 +7383,13 @@
         <v>8</v>
       </c>
       <c r="AI38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ38" t="n">
         <v>13</v>
       </c>
       <c r="AK38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL38" t="n">
         <v>34</v>
@@ -7407,7 +7407,7 @@
         <v>29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR38" t="n">
         <v>81</v>
@@ -7428,7 +7428,7 @@
         <v>81</v>
       </c>
       <c r="AX38" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY38" t="n">
         <v>21</v>
@@ -7437,13 +7437,13 @@
         <v>34</v>
       </c>
       <c r="BA38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB38" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC38" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD38" t="n">
         <v>81</v>
@@ -7481,16 +7481,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
         <v>1.91</v>
@@ -7505,16 +7505,16 @@
         <v>6.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P39" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R39" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S39" t="n">
         <v>1.57</v>
@@ -7547,13 +7547,13 @@
         <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD39" t="n">
         <v>6</v>
       </c>
       <c r="AE39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF39" t="n">
         <v>81</v>
@@ -7583,7 +7583,7 @@
         <v>4</v>
       </c>
       <c r="AO39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP39" t="n">
         <v>29</v>
@@ -7678,13 +7678,13 @@
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -7693,10 +7693,10 @@
         <v>2.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
         <v>1.53</v>
@@ -7729,13 +7729,13 @@
         <v>41</v>
       </c>
       <c r="AC40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD40" t="n">
         <v>6.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF40" t="n">
         <v>81</v>
@@ -7765,7 +7765,7 @@
         <v>3.6</v>
       </c>
       <c r="AO40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP40" t="n">
         <v>26</v>
@@ -7795,7 +7795,7 @@
         <v>6</v>
       </c>
       <c r="AY40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ40" t="n">
         <v>41</v>
@@ -8433,7 +8433,7 @@
         <v>3.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V44" t="n">
         <v>2.2</v>
@@ -8594,7 +8594,7 @@
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
         <v>1.22</v>
@@ -8618,7 +8618,7 @@
         <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W45" t="n">
         <v>7</v>
@@ -8764,13 +8764,13 @@
         <v>2.35</v>
       </c>
       <c r="J46" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
         <v>1.91</v>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M46" t="n">
         <v>1.13</v>
@@ -8785,16 +8785,16 @@
         <v>2.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U46" t="n">
         <v>2.25</v>
@@ -8854,25 +8854,25 @@
         <v>41</v>
       </c>
       <c r="AN46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO46" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS46" t="n">
         <v>351</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU46" t="n">
         <v>9.5</v>
@@ -8884,16 +8884,16 @@
         <v>126</v>
       </c>
       <c r="AX46" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY46" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ46" t="n">
         <v>29</v>
       </c>
       <c r="BA46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB46" t="n">
         <v>81</v>
@@ -8937,7 +8937,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
@@ -8946,19 +8946,19 @@
         <v>2.05</v>
       </c>
       <c r="J47" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K47" t="n">
         <v>1.95</v>
       </c>
       <c r="L47" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>
@@ -8991,13 +8991,13 @@
         <v>17</v>
       </c>
       <c r="Y47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z47" t="n">
         <v>41</v>
       </c>
       <c r="AA47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB47" t="n">
         <v>41</v>
@@ -9027,13 +9027,13 @@
         <v>9.5</v>
       </c>
       <c r="AK47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL47" t="n">
         <v>19</v>
       </c>
-      <c r="AL47" t="n">
-        <v>21</v>
-      </c>
       <c r="AM47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN47" t="n">
         <v>5.5</v>
@@ -9051,7 +9051,7 @@
         <v>126</v>
       </c>
       <c r="AS47" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT47" t="n">
         <v>2.38</v>
@@ -9119,7 +9119,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>3</v>
@@ -9134,7 +9134,7 @@
         <v>1.91</v>
       </c>
       <c r="L48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>1.11</v>
@@ -9176,7 +9176,7 @@
         <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA48" t="n">
         <v>26</v>
@@ -11121,13 +11121,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H59" t="n">
         <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J59" t="n">
         <v>3.4</v>
@@ -11145,16 +11145,16 @@
         <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R59" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S59" t="n">
         <v>1.44</v>
@@ -11169,7 +11169,7 @@
         <v>1.83</v>
       </c>
       <c r="W59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X59" t="n">
         <v>13</v>
@@ -11178,7 +11178,7 @@
         <v>11</v>
       </c>
       <c r="Z59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA59" t="n">
         <v>23</v>
@@ -11199,16 +11199,16 @@
         <v>51</v>
       </c>
       <c r="AG59" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK59" t="n">
         <v>26</v>
@@ -11220,7 +11220,7 @@
         <v>34</v>
       </c>
       <c r="AN59" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO59" t="n">
         <v>15</v>
@@ -23709,10 +23709,10 @@
         <v>4.33</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R128" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S128" t="n">
         <v>1.33</v>
@@ -24049,7 +24049,7 @@
         <v>5.5</v>
       </c>
       <c r="I130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J130" t="n">
         <v>1.73</v>
@@ -24085,10 +24085,10 @@
         <v>3.75</v>
       </c>
       <c r="U130" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V130" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W130" t="n">
         <v>9.5</v>
@@ -24106,7 +24106,7 @@
         <v>10</v>
       </c>
       <c r="AB130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC130" t="n">
         <v>19</v>
@@ -24157,7 +24157,7 @@
         <v>34</v>
       </c>
       <c r="AS130" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT130" t="n">
         <v>3.75</v>
@@ -24172,7 +24172,7 @@
         <v>501</v>
       </c>
       <c r="AX130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY130" t="n">
         <v>41</v>
@@ -24181,7 +24181,7 @@
         <v>34</v>
       </c>
       <c r="BA130" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB130" t="n">
         <v>126</v>
@@ -24407,13 +24407,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I132" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J132" t="n">
         <v>2.5</v>
@@ -24428,7 +24428,7 @@
         <v>1.08</v>
       </c>
       <c r="N132" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O132" t="n">
         <v>1.4</v>
@@ -24458,7 +24458,7 @@
         <v>5.5</v>
       </c>
       <c r="X132" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y132" t="n">
         <v>9</v>
@@ -24509,7 +24509,7 @@
         <v>3.6</v>
       </c>
       <c r="AO132" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP132" t="n">
         <v>23</v>
@@ -24518,7 +24518,7 @@
         <v>34</v>
       </c>
       <c r="AR132" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS132" t="n">
         <v>201</v>
@@ -24551,7 +24551,7 @@
         <v>151</v>
       </c>
       <c r="BC132" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD132" t="n">
         <v>126</v>
@@ -24771,40 +24771,40 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="H134" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I134" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="J134" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K134" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L134" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="M134" t="n">
         <v>1.02</v>
       </c>
       <c r="N134" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O134" t="n">
         <v>1.36</v>
       </c>
       <c r="P134" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q134" t="n">
         <v>2.05</v>
       </c>
       <c r="R134" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S134" t="n">
         <v>1.47</v>
@@ -24825,25 +24825,25 @@
         <v>14</v>
       </c>
       <c r="Y134" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z134" t="n">
         <v>35</v>
       </c>
       <c r="AA134" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB134" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC134" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD134" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE134" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF134" t="n">
         <v>75</v>
@@ -24855,43 +24855,43 @@
         <v>7.1</v>
       </c>
       <c r="AI134" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ134" t="n">
         <v>9.5</v>
       </c>
       <c r="AK134" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM134" t="n">
         <v>35</v>
       </c>
       <c r="AN134" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO134" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP134" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ134" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR134" t="n">
         <v>120</v>
       </c>
       <c r="AS134" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AU134" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV134" t="n">
         <v>75</v>
@@ -24900,19 +24900,19 @@
         <v>51</v>
       </c>
       <c r="AX134" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="AY134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ134" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA134" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB134" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC134" t="n">
         <v>350</v>
@@ -24953,22 +24953,22 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H135" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I135" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J135" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="K135" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L135" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="M135" t="n">
         <v>1.01</v>
@@ -24983,7 +24983,7 @@
         <v>2.9</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R135" t="n">
         <v>1.75</v>
@@ -24998,10 +24998,10 @@
         <v>1.78</v>
       </c>
       <c r="V135" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W135" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X135" t="n">
         <v>8.5</v>
@@ -25010,61 +25010,61 @@
         <v>8.25</v>
       </c>
       <c r="Z135" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA135" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA135" t="n">
-        <v>15</v>
-      </c>
       <c r="AB135" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC135" t="n">
         <v>9</v>
       </c>
       <c r="AD135" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE135" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF135" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG135" t="n">
         <v>600</v>
       </c>
       <c r="AH135" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI135" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ135" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK135" t="n">
         <v>65</v>
       </c>
       <c r="AL135" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM135" t="n">
         <v>40</v>
-      </c>
-      <c r="AM135" t="n">
-        <v>50</v>
       </c>
       <c r="AN135" t="n">
         <v>3.7</v>
       </c>
       <c r="AO135" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AP135" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ135" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR135" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AS135" t="n">
         <v>200</v>
@@ -25073,7 +25073,7 @@
         <v>2.6</v>
       </c>
       <c r="AU135" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV135" t="n">
         <v>60</v>
@@ -25085,19 +25085,19 @@
         <v>5.8</v>
       </c>
       <c r="AY135" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ135" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BA135" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB135" t="n">
         <v>120</v>
       </c>
-      <c r="BB135" t="n">
-        <v>150</v>
-      </c>
       <c r="BC135" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD135" t="n">
         <v>51</v>
@@ -25135,40 +25135,40 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P136" t="n">
         <v>3.45</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="K136" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L136" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M136" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N136" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="O136" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P136" t="n">
-        <v>3.5</v>
       </c>
       <c r="Q136" t="n">
         <v>1.65</v>
       </c>
       <c r="R136" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S136" t="n">
         <v>1.33</v>
@@ -25180,19 +25180,19 @@
         <v>1.6</v>
       </c>
       <c r="V136" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="W136" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X136" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y136" t="n">
         <v>8.5</v>
       </c>
       <c r="Z136" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA136" t="n">
         <v>14</v>
@@ -25201,16 +25201,16 @@
         <v>23</v>
       </c>
       <c r="AC136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE136" t="n">
         <v>13</v>
       </c>
-      <c r="AD136" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF136" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG136" t="n">
         <v>350</v>
@@ -25219,13 +25219,13 @@
         <v>12.5</v>
       </c>
       <c r="AI136" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ136" t="n">
         <v>12</v>
       </c>
       <c r="AK136" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL136" t="n">
         <v>28</v>
@@ -25234,28 +25234,28 @@
         <v>32</v>
       </c>
       <c r="AN136" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO136" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ136" t="n">
         <v>32</v>
       </c>
       <c r="AR136" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS136" t="n">
         <v>200</v>
       </c>
       <c r="AT136" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU136" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV136" t="n">
         <v>55</v>
@@ -25267,7 +25267,7 @@
         <v>5.4</v>
       </c>
       <c r="AY136" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ136" t="n">
         <v>23</v>
@@ -26227,40 +26227,40 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="H142" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I142" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="J142" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L142" t="n">
         <v>2.1</v>
-      </c>
-      <c r="L142" t="n">
-        <v>2.3</v>
       </c>
       <c r="M142" t="n">
         <v>1.07</v>
       </c>
       <c r="N142" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O142" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P142" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R142" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S142" t="n">
         <v>1.44</v>
@@ -26269,40 +26269,40 @@
         <v>2.63</v>
       </c>
       <c r="U142" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V142" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W142" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X142" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y142" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z142" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA142" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB142" t="n">
         <v>51</v>
       </c>
       <c r="AC142" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD142" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE142" t="n">
         <v>21</v>
       </c>
       <c r="AF142" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG142" t="n">
         <v>1250</v>
@@ -26311,13 +26311,13 @@
         <v>5.5</v>
       </c>
       <c r="AI142" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ142" t="n">
         <v>9</v>
       </c>
       <c r="AK142" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL142" t="n">
         <v>15</v>
@@ -26326,7 +26326,7 @@
         <v>34</v>
       </c>
       <c r="AN142" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO142" t="n">
         <v>34</v>
@@ -26335,10 +26335,10 @@
         <v>41</v>
       </c>
       <c r="AQ142" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR142" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS142" t="n">
         <v>351</v>
@@ -26347,7 +26347,7 @@
         <v>2.63</v>
       </c>
       <c r="AU142" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV142" t="n">
         <v>67</v>
@@ -26356,16 +26356,16 @@
         <v>51</v>
       </c>
       <c r="AX142" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AY142" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ142" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA142" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB142" t="n">
         <v>51</v>
@@ -26409,22 +26409,22 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I143" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J143" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K143" t="n">
         <v>2.1</v>
       </c>
       <c r="L143" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M143" t="n">
         <v>1.06</v>
@@ -26433,16 +26433,16 @@
         <v>10</v>
       </c>
       <c r="O143" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P143" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R143" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S143" t="n">
         <v>1.44</v>
@@ -26451,22 +26451,22 @@
         <v>2.63</v>
       </c>
       <c r="U143" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V143" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W143" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X143" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y143" t="n">
         <v>9</v>
       </c>
       <c r="Z143" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA143" t="n">
         <v>17</v>
@@ -26475,10 +26475,10 @@
         <v>29</v>
       </c>
       <c r="AC143" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD143" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE143" t="n">
         <v>17</v>
@@ -26490,37 +26490,37 @@
         <v>351</v>
       </c>
       <c r="AH143" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI143" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ143" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK143" t="n">
         <v>41</v>
       </c>
       <c r="AL143" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM143" t="n">
         <v>41</v>
       </c>
       <c r="AN143" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO143" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP143" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ143" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR143" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS143" t="n">
         <v>151</v>
@@ -26538,16 +26538,16 @@
         <v>51</v>
       </c>
       <c r="AX143" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY143" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ143" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA143" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB143" t="n">
         <v>101</v>
@@ -28420,13 +28420,13 @@
         <v>16</v>
       </c>
       <c r="J154" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K154" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M154" t="n">
         <v>1.02</v>
@@ -28447,19 +28447,19 @@
         <v>2.88</v>
       </c>
       <c r="S154" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T154" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U154" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V154" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W154" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X154" t="n">
         <v>6.5</v>
@@ -28486,7 +28486,7 @@
         <v>34</v>
       </c>
       <c r="AF154" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG154" t="n">
         <v>501</v>
@@ -28510,7 +28510,7 @@
         <v>81</v>
       </c>
       <c r="AN154" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO154" t="n">
         <v>4.75</v>
@@ -28528,7 +28528,7 @@
         <v>126</v>
       </c>
       <c r="AT154" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU154" t="n">
         <v>11</v>
@@ -38057,22 +38057,22 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H207" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J207" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J207" t="n">
-        <v>3.2</v>
       </c>
       <c r="K207" t="n">
         <v>2</v>
       </c>
       <c r="L207" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M207" t="n">
         <v>1.08</v>
@@ -38108,13 +38108,13 @@
         <v>7</v>
       </c>
       <c r="X207" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y207" t="n">
         <v>10</v>
       </c>
       <c r="Z207" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA207" t="n">
         <v>21</v>
@@ -38123,22 +38123,22 @@
         <v>34</v>
       </c>
       <c r="AC207" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD207" t="n">
         <v>6</v>
       </c>
       <c r="AE207" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF207" t="n">
         <v>51</v>
       </c>
       <c r="AG207" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH207" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI207" t="n">
         <v>15</v>
@@ -38159,19 +38159,19 @@
         <v>4.33</v>
       </c>
       <c r="AO207" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP207" t="n">
         <v>26</v>
       </c>
       <c r="AQ207" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR207" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS207" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT207" t="n">
         <v>2.5</v>
@@ -38186,7 +38186,7 @@
         <v>51</v>
       </c>
       <c r="AX207" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY207" t="n">
         <v>19</v>
@@ -38195,10 +38195,10 @@
         <v>29</v>
       </c>
       <c r="BA207" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB207" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC207" t="n">
         <v>251</v>
@@ -38239,22 +38239,22 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H208" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I208" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J208" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K208" t="n">
         <v>2.4</v>
       </c>
       <c r="L208" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M208" t="n">
         <v>1.03</v>
@@ -38263,10 +38263,10 @@
         <v>17</v>
       </c>
       <c r="O208" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P208" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q208" t="n">
         <v>1.53</v>
@@ -38275,19 +38275,19 @@
         <v>2.4</v>
       </c>
       <c r="S208" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T208" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U208" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V208" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W208" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X208" t="n">
         <v>13</v>
@@ -38305,7 +38305,7 @@
         <v>19</v>
       </c>
       <c r="AC208" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD208" t="n">
         <v>7.5</v>
@@ -38326,13 +38326,13 @@
         <v>19</v>
       </c>
       <c r="AJ208" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK208" t="n">
         <v>34</v>
       </c>
       <c r="AL208" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM208" t="n">
         <v>23</v>
@@ -38356,7 +38356,7 @@
         <v>81</v>
       </c>
       <c r="AT208" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU208" t="n">
         <v>7</v>
@@ -38371,13 +38371,13 @@
         <v>5.5</v>
       </c>
       <c r="AY208" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ208" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA208" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB208" t="n">
         <v>51</v>
@@ -38421,22 +38421,22 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H209" t="n">
         <v>3.6</v>
       </c>
       <c r="I209" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J209" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K209" t="n">
         <v>2.4</v>
       </c>
       <c r="L209" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M209" t="n">
         <v>1.03</v>
@@ -38451,10 +38451,10 @@
         <v>5</v>
       </c>
       <c r="Q209" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R209" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S209" t="n">
         <v>1.29</v>
@@ -38463,25 +38463,25 @@
         <v>3.5</v>
       </c>
       <c r="U209" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V209" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W209" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X209" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y209" t="n">
         <v>9.5</v>
       </c>
       <c r="Z209" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA209" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB209" t="n">
         <v>21</v>
@@ -38496,7 +38496,7 @@
         <v>11</v>
       </c>
       <c r="AF209" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG209" t="n">
         <v>101</v>
@@ -38511,7 +38511,7 @@
         <v>11</v>
       </c>
       <c r="AK209" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL209" t="n">
         <v>21</v>
@@ -38520,19 +38520,19 @@
         <v>23</v>
       </c>
       <c r="AN209" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO209" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP209" t="n">
         <v>17</v>
       </c>
       <c r="AQ209" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR209" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS209" t="n">
         <v>101</v>
@@ -38547,16 +38547,16 @@
         <v>41</v>
       </c>
       <c r="AW209" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX209" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY209" t="n">
         <v>15</v>
       </c>
       <c r="AZ209" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA209" t="n">
         <v>41</v>
@@ -38803,10 +38803,10 @@
         <v>4</v>
       </c>
       <c r="M211" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N211" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O211" t="n">
         <v>1.11</v>
@@ -39149,22 +39149,22 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H213" t="n">
         <v>4</v>
       </c>
       <c r="I213" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J213" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K213" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L213" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M213" t="n">
         <v>1.01</v>
@@ -39191,25 +39191,25 @@
         <v>4</v>
       </c>
       <c r="U213" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V213" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W213" t="n">
         <v>15</v>
       </c>
       <c r="X213" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y213" t="n">
         <v>10</v>
       </c>
       <c r="Z213" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA213" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB213" t="n">
         <v>19</v>
@@ -39218,16 +39218,16 @@
         <v>23</v>
       </c>
       <c r="AD213" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE213" t="n">
         <v>11</v>
       </c>
       <c r="AF213" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG213" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH213" t="n">
         <v>17</v>
@@ -39242,10 +39242,10 @@
         <v>29</v>
       </c>
       <c r="AL213" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM213" t="n">
         <v>19</v>
-      </c>
-      <c r="AM213" t="n">
-        <v>21</v>
       </c>
       <c r="AN213" t="n">
         <v>5</v>
@@ -39478,7 +39478,7 @@
         <v>101</v>
       </c>
       <c r="BD214" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="215">
@@ -39537,10 +39537,10 @@
         <v>17</v>
       </c>
       <c r="O215" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P215" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q215" t="n">
         <v>1.53</v>
@@ -39877,22 +39877,22 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H217" t="n">
         <v>3.5</v>
       </c>
       <c r="I217" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J217" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K217" t="n">
         <v>2.25</v>
       </c>
       <c r="L217" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M217" t="n">
         <v>1.04</v>
@@ -39907,10 +39907,10 @@
         <v>4</v>
       </c>
       <c r="Q217" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R217" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S217" t="n">
         <v>1.33</v>
@@ -39925,10 +39925,10 @@
         <v>2.2</v>
       </c>
       <c r="W217" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X217" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y217" t="n">
         <v>10</v>
@@ -39958,10 +39958,10 @@
         <v>151</v>
       </c>
       <c r="AH217" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI217" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ217" t="n">
         <v>10</v>
@@ -39979,7 +39979,7 @@
         <v>4.75</v>
       </c>
       <c r="AO217" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP217" t="n">
         <v>21</v>
@@ -40009,7 +40009,7 @@
         <v>4.75</v>
       </c>
       <c r="AY217" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ217" t="n">
         <v>21</v>
@@ -40059,16 +40059,16 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I218" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J218" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K218" t="n">
         <v>2.88</v>
@@ -40080,7 +40080,7 @@
         <v>1.01</v>
       </c>
       <c r="N218" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O218" t="n">
         <v>1.07</v>
@@ -40110,7 +40110,7 @@
         <v>15</v>
       </c>
       <c r="X218" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y218" t="n">
         <v>9.5</v>
@@ -40137,7 +40137,7 @@
         <v>29</v>
       </c>
       <c r="AG218" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH218" t="n">
         <v>26</v>
@@ -40170,7 +40170,7 @@
         <v>19</v>
       </c>
       <c r="AR218" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS218" t="n">
         <v>51</v>
@@ -40185,7 +40185,7 @@
         <v>34</v>
       </c>
       <c r="AW218" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AX218" t="n">
         <v>8</v>
@@ -40206,7 +40206,7 @@
         <v>81</v>
       </c>
       <c r="BD218" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219">
@@ -40423,55 +40423,55 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H220" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="I220" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J220" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="K220" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L220" t="n">
         <v>6.4</v>
       </c>
       <c r="M220" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N220" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="O220" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P220" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q220" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R220" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S220" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T220" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="U220" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V220" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W220" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="X220" t="n">
         <v>6.3</v>
@@ -40480,37 +40480,37 @@
         <v>8.25</v>
       </c>
       <c r="Z220" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA220" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB220" t="n">
         <v>30</v>
       </c>
       <c r="AC220" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD220" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE220" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF220" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG220" t="n">
         <v>900</v>
       </c>
       <c r="AH220" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI220" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ220" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK220" t="n">
         <v>150</v>
@@ -40519,31 +40519,31 @@
         <v>80</v>
       </c>
       <c r="AM220" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN220" t="n">
         <v>3.2</v>
       </c>
       <c r="AO220" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AP220" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ220" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AR220" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS220" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT220" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="AU220" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV220" t="n">
         <v>90</v>
@@ -40552,7 +40552,7 @@
         <v>51</v>
       </c>
       <c r="AX220" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AY220" t="n">
         <v>40</v>
@@ -40564,7 +40564,7 @@
         <v>300</v>
       </c>
       <c r="BB220" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC220" t="n">
         <v>450</v>
@@ -40605,76 +40605,76 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H221" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I221" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J221" t="n">
         <v>3.05</v>
       </c>
       <c r="K221" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L221" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M221" t="n">
         <v>1.04</v>
       </c>
       <c r="N221" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O221" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P221" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q221" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R221" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S221" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T221" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U221" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V221" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="W221" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="X221" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y221" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z221" t="n">
         <v>30</v>
       </c>
       <c r="AA221" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB221" t="n">
         <v>23</v>
       </c>
       <c r="AC221" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD221" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE221" t="n">
         <v>11.75</v>
@@ -40686,31 +40686,31 @@
         <v>250</v>
       </c>
       <c r="AH221" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AI221" t="n">
         <v>14</v>
       </c>
       <c r="AJ221" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK221" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL221" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AM221" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN221" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO221" t="n">
         <v>13</v>
       </c>
       <c r="AP221" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ221" t="n">
         <v>50</v>
@@ -40722,13 +40722,13 @@
         <v>175</v>
       </c>
       <c r="AT221" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU221" t="n">
         <v>6.5</v>
       </c>
       <c r="AV221" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW221" t="n">
         <v>51</v>
@@ -40737,16 +40737,16 @@
         <v>4.65</v>
       </c>
       <c r="AY221" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AZ221" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA221" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB221" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BC221" t="n">
         <v>200</v>
@@ -40787,22 +40787,22 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H222" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J222" t="n">
         <v>3.65</v>
       </c>
-      <c r="I222" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J222" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K222" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L222" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="M222" t="n">
         <v>1.04</v>
@@ -40811,10 +40811,10 @@
         <v>8.25</v>
       </c>
       <c r="O222" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P222" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q222" t="n">
         <v>1.7</v>
@@ -40823,10 +40823,10 @@
         <v>2.07</v>
       </c>
       <c r="S222" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T222" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U222" t="n">
         <v>1.62</v>
@@ -40835,19 +40835,19 @@
         <v>2.15</v>
       </c>
       <c r="W222" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="X222" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y222" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z222" t="n">
         <v>45</v>
       </c>
       <c r="AA222" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB222" t="n">
         <v>30</v>
@@ -40856,7 +40856,7 @@
         <v>8.25</v>
       </c>
       <c r="AD222" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AE222" t="n">
         <v>13</v>
@@ -40871,43 +40871,43 @@
         <v>8.75</v>
       </c>
       <c r="AI222" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AJ222" t="n">
         <v>8.5</v>
       </c>
       <c r="AK222" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO222" t="n">
         <v>17</v>
       </c>
-      <c r="AL222" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM222" t="n">
+      <c r="AP222" t="n">
         <v>22</v>
-      </c>
-      <c r="AN222" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO222" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP222" t="n">
-        <v>23</v>
       </c>
       <c r="AQ222" t="n">
         <v>80</v>
       </c>
       <c r="AR222" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS222" t="n">
         <v>250</v>
       </c>
       <c r="AT222" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU222" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV222" t="n">
         <v>55</v>
@@ -40916,22 +40916,22 @@
         <v>51</v>
       </c>
       <c r="AX222" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AY222" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ222" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BA222" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB222" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BC222" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BD222" t="n">
         <v>51</v>
@@ -40969,64 +40969,64 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H223" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I223" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="J223" t="n">
         <v>9</v>
       </c>
       <c r="K223" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L223" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="M223" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N223" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O223" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P223" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R223" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S223" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T223" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="U223" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V223" t="n">
         <v>1.5</v>
       </c>
       <c r="W223" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X223" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y223" t="n">
         <v>35</v>
       </c>
       <c r="Z223" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AA223" t="n">
         <v>175</v>
@@ -41035,31 +41035,31 @@
         <v>150</v>
       </c>
       <c r="AC223" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD223" t="n">
         <v>9.75</v>
       </c>
       <c r="AE223" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF223" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG223" t="n">
         <v>600</v>
       </c>
       <c r="AH223" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AI223" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AJ223" t="n">
         <v>9.25</v>
       </c>
       <c r="AK223" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AL223" t="n">
         <v>12.5</v>
@@ -41068,7 +41068,7 @@
         <v>40</v>
       </c>
       <c r="AN223" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AO223" t="n">
         <v>70</v>
@@ -41086,34 +41086,34 @@
         <v>500</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="AU223" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AV223" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AW223" t="n">
         <v>51</v>
       </c>
       <c r="AX223" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AY223" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AZ223" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA223" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="BB223" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BC223" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD223" t="n">
         <v>51</v>
@@ -41157,7 +41157,7 @@
         <v>3.45</v>
       </c>
       <c r="I224" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="J224" t="n">
         <v>2.7</v>
@@ -41178,7 +41178,7 @@
         <v>1.2</v>
       </c>
       <c r="P224" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q224" t="n">
         <v>1.62</v>
@@ -41199,16 +41199,16 @@
         <v>2.35</v>
       </c>
       <c r="W224" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X224" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y224" t="n">
         <v>8.75</v>
       </c>
       <c r="Z224" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA224" t="n">
         <v>15.5</v>
@@ -41220,22 +41220,22 @@
         <v>8.5</v>
       </c>
       <c r="AD224" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE224" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF224" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG224" t="n">
         <v>250</v>
       </c>
       <c r="AH224" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI224" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ224" t="n">
         <v>10.5</v>
@@ -41271,7 +41271,7 @@
         <v>3.1</v>
       </c>
       <c r="AU224" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV224" t="n">
         <v>45</v>
@@ -41280,7 +41280,7 @@
         <v>51</v>
       </c>
       <c r="AX224" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AY224" t="n">
         <v>15.5</v>
@@ -41292,7 +41292,7 @@
         <v>65</v>
       </c>
       <c r="BB224" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC224" t="n">
         <v>200</v>
@@ -41336,16 +41336,16 @@
         <v>1.55</v>
       </c>
       <c r="H225" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I225" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="J225" t="n">
         <v>2.07</v>
       </c>
       <c r="K225" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L225" t="n">
         <v>5</v>
@@ -41363,10 +41363,10 @@
         <v>3.85</v>
       </c>
       <c r="Q225" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R225" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S225" t="n">
         <v>1.33</v>
@@ -41378,22 +41378,22 @@
         <v>1.75</v>
       </c>
       <c r="V225" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W225" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X225" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y225" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z225" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA225" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB225" t="n">
         <v>23</v>
@@ -41411,7 +41411,7 @@
         <v>65</v>
       </c>
       <c r="AG225" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH225" t="n">
         <v>15.5</v>
@@ -41435,7 +41435,7 @@
         <v>3.5</v>
       </c>
       <c r="AO225" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AP225" t="n">
         <v>16</v>
@@ -41462,13 +41462,13 @@
         <v>51</v>
       </c>
       <c r="AX225" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AY225" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ225" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA225" t="n">
         <v>150</v>
@@ -41477,7 +41477,7 @@
         <v>175</v>
       </c>
       <c r="BC225" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD225" t="n">
         <v>51</v>
@@ -41539,13 +41539,13 @@
         <v>7.4</v>
       </c>
       <c r="O226" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P226" t="n">
         <v>3.25</v>
       </c>
       <c r="Q226" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R226" t="n">
         <v>1.85</v>
@@ -41557,25 +41557,25 @@
         <v>2.72</v>
       </c>
       <c r="U226" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V226" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W226" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X226" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y226" t="n">
         <v>8.5</v>
       </c>
       <c r="Z226" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA226" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB226" t="n">
         <v>27</v>
@@ -41587,10 +41587,10 @@
         <v>6.8</v>
       </c>
       <c r="AE226" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF226" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG226" t="n">
         <v>500</v>
@@ -41599,7 +41599,7 @@
         <v>10.25</v>
       </c>
       <c r="AI226" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ226" t="n">
         <v>11.75</v>
@@ -41614,10 +41614,10 @@
         <v>37</v>
       </c>
       <c r="AN226" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO226" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AP226" t="n">
         <v>19.5</v>
@@ -41635,7 +41635,7 @@
         <v>2.72</v>
       </c>
       <c r="AU226" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV226" t="n">
         <v>70</v>
@@ -41644,16 +41644,16 @@
         <v>51</v>
       </c>
       <c r="AX226" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AY226" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ226" t="n">
         <v>27</v>
       </c>
       <c r="BA226" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB226" t="n">
         <v>150</v>
@@ -41697,10 +41697,10 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H227" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I227" t="n">
         <v>2.12</v>
@@ -41709,10 +41709,10 @@
         <v>3.85</v>
       </c>
       <c r="K227" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L227" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="M227" t="n">
         <v>1.08</v>
@@ -41739,16 +41739,16 @@
         <v>2.55</v>
       </c>
       <c r="U227" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V227" t="n">
         <v>1.8</v>
       </c>
       <c r="W227" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X227" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y227" t="n">
         <v>11.75</v>
@@ -41760,25 +41760,25 @@
         <v>32</v>
       </c>
       <c r="AB227" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC227" t="n">
         <v>6.4</v>
       </c>
       <c r="AD227" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE227" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF227" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG227" t="n">
         <v>800</v>
       </c>
       <c r="AH227" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI227" t="n">
         <v>9.5</v>
@@ -41790,7 +41790,7 @@
         <v>20</v>
       </c>
       <c r="AL227" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AM227" t="n">
         <v>35</v>
@@ -41802,7 +41802,7 @@
         <v>18.5</v>
       </c>
       <c r="AP227" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ227" t="n">
         <v>100</v>
@@ -41817,7 +41817,7 @@
         <v>2.55</v>
       </c>
       <c r="AU227" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV227" t="n">
         <v>75</v>
@@ -41829,13 +41829,13 @@
         <v>3.95</v>
       </c>
       <c r="AY227" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AZ227" t="n">
         <v>22</v>
       </c>
       <c r="BA227" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BB227" t="n">
         <v>90</v>
@@ -41879,28 +41879,28 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H228" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I228" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="J228" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K228" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L228" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="M228" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N228" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O228" t="n">
         <v>1.24</v>
@@ -41921,10 +41921,10 @@
         <v>2.95</v>
       </c>
       <c r="U228" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V228" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W228" t="n">
         <v>7.4</v>
@@ -41933,25 +41933,25 @@
         <v>7.6</v>
       </c>
       <c r="Y228" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z228" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA228" t="n">
         <v>12</v>
       </c>
       <c r="AB228" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC228" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD228" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AE228" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF228" t="n">
         <v>70</v>
@@ -41960,19 +41960,19 @@
         <v>500</v>
       </c>
       <c r="AH228" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI228" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ228" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK228" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL228" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM228" t="n">
         <v>50</v>
@@ -41999,7 +41999,7 @@
         <v>2.95</v>
       </c>
       <c r="AU228" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV228" t="n">
         <v>70</v>
@@ -42008,10 +42008,10 @@
         <v>51</v>
       </c>
       <c r="AX228" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AY228" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ228" t="n">
         <v>32</v>
@@ -42023,7 +42023,7 @@
         <v>200</v>
       </c>
       <c r="BC228" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD228" t="n">
         <v>51</v>
@@ -42061,28 +42061,28 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H229" t="n">
         <v>2.82</v>
       </c>
       <c r="I229" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="J229" t="n">
         <v>3.7</v>
       </c>
       <c r="K229" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L229" t="n">
         <v>3.05</v>
       </c>
       <c r="M229" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N229" t="n">
-        <v>6.55</v>
+        <v>6.88</v>
       </c>
       <c r="O229" t="n">
         <v>1.42</v>
@@ -42100,7 +42100,7 @@
         <v>1.47</v>
       </c>
       <c r="T229" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="U229" t="n">
         <v>1.83</v>
@@ -42109,10 +42109,10 @@
         <v>1.78</v>
       </c>
       <c r="W229" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X229" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y229" t="n">
         <v>11</v>
@@ -42139,31 +42139,31 @@
         <v>80</v>
       </c>
       <c r="AG229" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH229" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AI229" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AJ229" t="n">
         <v>9.5</v>
       </c>
       <c r="AK229" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL229" t="n">
         <v>23</v>
       </c>
       <c r="AM229" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN229" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AO229" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AP229" t="n">
         <v>25</v>
@@ -42178,7 +42178,7 @@
         <v>350</v>
       </c>
       <c r="AT229" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AU229" t="n">
         <v>6.9</v>
@@ -42190,10 +42190,10 @@
         <v>51</v>
       </c>
       <c r="AX229" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AY229" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AZ229" t="n">
         <v>22</v>
@@ -42243,34 +42243,34 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H230" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I230" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="J230" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="K230" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L230" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M230" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N230" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="O230" t="n">
         <v>1.33</v>
       </c>
       <c r="P230" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Q230" t="n">
         <v>1.98</v>
@@ -42291,28 +42291,28 @@
         <v>1.93</v>
       </c>
       <c r="W230" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="X230" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="Y230" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z230" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA230" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB230" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC230" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD230" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE230" t="n">
         <v>12.5</v>
@@ -42324,16 +42324,16 @@
         <v>450</v>
       </c>
       <c r="AH230" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AI230" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AJ230" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK230" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL230" t="n">
         <v>29</v>
@@ -42342,19 +42342,19 @@
         <v>35</v>
       </c>
       <c r="AN230" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="AO230" t="n">
         <v>12</v>
       </c>
       <c r="AP230" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ230" t="n">
         <v>50</v>
       </c>
       <c r="AR230" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS230" t="n">
         <v>200</v>
@@ -42363,31 +42363,31 @@
         <v>2.55</v>
       </c>
       <c r="AU230" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AV230" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW230" t="n">
         <v>51</v>
       </c>
       <c r="AX230" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AY230" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ230" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA230" t="n">
         <v>80</v>
       </c>
       <c r="BB230" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC230" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD230" t="n">
         <v>51</v>
@@ -42431,16 +42431,16 @@
         <v>4.15</v>
       </c>
       <c r="I231" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="J231" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="K231" t="n">
         <v>2.25</v>
       </c>
       <c r="L231" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M231" t="n">
         <v>1.01</v>
@@ -42482,61 +42482,61 @@
         <v>8.25</v>
       </c>
       <c r="Z231" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA231" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB231" t="n">
         <v>29</v>
       </c>
       <c r="AC231" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD231" t="n">
         <v>8.25</v>
       </c>
       <c r="AE231" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF231" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG231" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH231" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI231" t="n">
         <v>45</v>
       </c>
       <c r="AJ231" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK231" t="n">
         <v>175</v>
       </c>
       <c r="AL231" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM231" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN231" t="n">
         <v>3.15</v>
       </c>
       <c r="AO231" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AP231" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ231" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR231" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS231" t="n">
         <v>250</v>
@@ -42545,28 +42545,28 @@
         <v>2.62</v>
       </c>
       <c r="AU231" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV231" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW231" t="n">
         <v>51</v>
       </c>
       <c r="AX231" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AY231" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ231" t="n">
         <v>45</v>
       </c>
       <c r="BA231" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BB231" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC231" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-05.xlsx
@@ -8391,64 +8391,64 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K44" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P44" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R44" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U44" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V44" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W44" t="n">
+        <v>10</v>
+      </c>
+      <c r="X44" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y44" t="n">
         <v>9</v>
       </c>
-      <c r="X44" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="n">
         <v>15</v>
@@ -8457,7 +8457,7 @@
         <v>21</v>
       </c>
       <c r="AC44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD44" t="n">
         <v>7</v>
@@ -8469,34 +8469,34 @@
         <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI44" t="n">
         <v>21</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK44" t="n">
         <v>41</v>
       </c>
       <c r="AL44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM44" t="n">
         <v>29</v>
       </c>
       <c r="AN44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ44" t="n">
         <v>34</v>
@@ -8508,7 +8508,7 @@
         <v>101</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU44" t="n">
         <v>7.5</v>
@@ -8523,7 +8523,7 @@
         <v>5.5</v>
       </c>
       <c r="AY44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ44" t="n">
         <v>23</v>
@@ -8535,7 +8535,7 @@
         <v>67</v>
       </c>
       <c r="BC44" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD44" t="n">
         <v>151</v>
@@ -8573,55 +8573,55 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="H45" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L45" t="n">
+        <v>7</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N45" t="n">
         <v>10</v>
       </c>
-      <c r="J45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L45" t="n">
-        <v>8</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N45" t="n">
-        <v>13</v>
-      </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="W45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X45" t="n">
         <v>6.5</v>
@@ -8630,7 +8630,7 @@
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA45" t="n">
         <v>12</v>
@@ -8639,61 +8639,61 @@
         <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AH45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>23</v>
       </c>
-      <c r="AI45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>29</v>
-      </c>
       <c r="AK45" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP45" t="n">
         <v>19</v>
       </c>
       <c r="AQ45" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AR45" t="n">
         <v>41</v>
       </c>
       <c r="AS45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV45" t="n">
         <v>67</v>
@@ -8702,22 +8702,22 @@
         <v>126</v>
       </c>
       <c r="AX45" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AY45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ45" t="n">
         <v>41</v>
       </c>
       <c r="BA45" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB45" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC45" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD45" t="n">
         <v>126</v>
@@ -9119,16 +9119,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
@@ -9137,22 +9137,22 @@
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P48" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R48" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S48" t="n">
         <v>1.57</v>
@@ -9170,16 +9170,16 @@
         <v>6</v>
       </c>
       <c r="X48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z48" t="n">
         <v>23</v>
       </c>
       <c r="AA48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB48" t="n">
         <v>41</v>
@@ -9212,7 +9212,7 @@
         <v>34</v>
       </c>
       <c r="AL48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="n">
         <v>41</v>
@@ -9230,7 +9230,7 @@
         <v>51</v>
       </c>
       <c r="AR48" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS48" t="n">
         <v>301</v>
@@ -9248,7 +9248,7 @@
         <v>126</v>
       </c>
       <c r="AX48" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY48" t="n">
         <v>19</v>
@@ -9301,16 +9301,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K49" t="n">
         <v>1.91</v>
@@ -9319,10 +9319,10 @@
         <v>3.6</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.5</v>
@@ -9352,13 +9352,13 @@
         <v>6.5</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y49" t="n">
         <v>11</v>
       </c>
       <c r="Z49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA49" t="n">
         <v>26</v>
@@ -9382,7 +9382,7 @@
         <v>351</v>
       </c>
       <c r="AH49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI49" t="n">
         <v>12</v>
@@ -9406,7 +9406,7 @@
         <v>17</v>
       </c>
       <c r="AP49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ49" t="n">
         <v>51</v>
@@ -9430,7 +9430,7 @@
         <v>126</v>
       </c>
       <c r="AX49" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY49" t="n">
         <v>17</v>
@@ -23679,22 +23679,22 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K128" t="n">
         <v>2.25</v>
       </c>
-      <c r="J128" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K128" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L128" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M128" t="n">
         <v>1.04</v>
@@ -23703,16 +23703,16 @@
         <v>13</v>
       </c>
       <c r="O128" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P128" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R128" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S128" t="n">
         <v>1.33</v>
@@ -23721,25 +23721,25 @@
         <v>3.25</v>
       </c>
       <c r="U128" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V128" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W128" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X128" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y128" t="n">
         <v>11</v>
       </c>
       <c r="Z128" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA128" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB128" t="n">
         <v>26</v>
@@ -23757,19 +23757,19 @@
         <v>41</v>
       </c>
       <c r="AG128" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH128" t="n">
         <v>10</v>
       </c>
       <c r="AI128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK128" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL128" t="n">
         <v>17</v>
@@ -23811,10 +23811,10 @@
         <v>4.5</v>
       </c>
       <c r="AY128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ128" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA128" t="n">
         <v>41</v>
@@ -23885,16 +23885,16 @@
         <v>17</v>
       </c>
       <c r="O129" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P129" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R129" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S129" t="n">
         <v>1.29</v>
@@ -23903,10 +23903,10 @@
         <v>3.5</v>
       </c>
       <c r="U129" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V129" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W129" t="n">
         <v>8.5</v>
@@ -23915,7 +23915,7 @@
         <v>7.5</v>
       </c>
       <c r="Y129" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z129" t="n">
         <v>10</v>
@@ -23924,13 +23924,13 @@
         <v>11</v>
       </c>
       <c r="AB129" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD129" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE129" t="n">
         <v>17</v>
@@ -23942,10 +23942,10 @@
         <v>201</v>
       </c>
       <c r="AH129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI129" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ129" t="n">
         <v>19</v>
@@ -23960,13 +23960,13 @@
         <v>41</v>
       </c>
       <c r="AN129" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO129" t="n">
         <v>7</v>
       </c>
       <c r="AP129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ129" t="n">
         <v>19</v>
@@ -23981,7 +23981,7 @@
         <v>3.5</v>
       </c>
       <c r="AU129" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV129" t="n">
         <v>51</v>
@@ -24225,46 +24225,46 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H131" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I131" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J131" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K131" t="n">
         <v>2.3</v>
       </c>
       <c r="L131" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N131" t="n">
+        <v>13</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P131" t="n">
         <v>4</v>
       </c>
-      <c r="M131" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N131" t="n">
-        <v>15</v>
-      </c>
-      <c r="O131" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P131" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q131" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R131" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S131" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T131" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U131" t="n">
         <v>1.62</v>
@@ -24273,28 +24273,28 @@
         <v>2.2</v>
       </c>
       <c r="W131" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y131" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z131" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA131" t="n">
         <v>15</v>
       </c>
       <c r="AB131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC131" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD131" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE131" t="n">
         <v>13</v>
@@ -24306,43 +24306,43 @@
         <v>151</v>
       </c>
       <c r="AH131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI131" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK131" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL131" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM131" t="n">
         <v>29</v>
       </c>
       <c r="AN131" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP131" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ131" t="n">
         <v>34</v>
       </c>
       <c r="AR131" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS131" t="n">
         <v>101</v>
       </c>
       <c r="AT131" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU131" t="n">
         <v>7.5</v>
@@ -24354,10 +24354,10 @@
         <v>451</v>
       </c>
       <c r="AX131" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY131" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ131" t="n">
         <v>23</v>
@@ -24372,7 +24372,7 @@
         <v>151</v>
       </c>
       <c r="BD131" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
@@ -24771,46 +24771,46 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="H134" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
         <v>2.45</v>
       </c>
       <c r="J134" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K134" t="n">
         <v>1.93</v>
       </c>
       <c r="L134" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M134" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N134" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="O134" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P134" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R134" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S134" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T134" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="U134" t="n">
         <v>1.8</v>
@@ -24819,100 +24819,100 @@
         <v>1.8</v>
       </c>
       <c r="W134" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="X134" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y134" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z134" t="n">
         <v>35</v>
       </c>
       <c r="AA134" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB134" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC134" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AD134" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE134" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF134" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG134" t="n">
         <v>700</v>
       </c>
       <c r="AH134" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI134" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AJ134" t="n">
         <v>9.5</v>
       </c>
       <c r="AK134" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL134" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ134" t="n">
         <v>23</v>
       </c>
-      <c r="AM134" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN134" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO134" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP134" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ134" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR134" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS134" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT134" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU134" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV134" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW134" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX134" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AY134" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ134" t="n">
-        <v>25</v>
-      </c>
       <c r="BA134" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB134" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC134" t="n">
         <v>350</v>
@@ -24953,28 +24953,28 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H135" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I135" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="J135" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="K135" t="n">
         <v>2.12</v>
       </c>
       <c r="L135" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="M135" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N135" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O135" t="n">
         <v>1.31</v>
@@ -24983,7 +24983,7 @@
         <v>2.9</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R135" t="n">
         <v>1.75</v>
@@ -24998,19 +24998,19 @@
         <v>1.78</v>
       </c>
       <c r="V135" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W135" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X135" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y135" t="n">
         <v>8.25</v>
       </c>
       <c r="Z135" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA135" t="n">
         <v>15.5</v>
@@ -25019,13 +25019,13 @@
         <v>28</v>
       </c>
       <c r="AC135" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD135" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE135" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF135" t="n">
         <v>70</v>
@@ -25034,28 +25034,28 @@
         <v>600</v>
       </c>
       <c r="AH135" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI135" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ135" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK135" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL135" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM135" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN135" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO135" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP135" t="n">
         <v>17.5</v>
@@ -25064,7 +25064,7 @@
         <v>32</v>
       </c>
       <c r="AR135" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS135" t="n">
         <v>200</v>
@@ -25073,7 +25073,7 @@
         <v>2.6</v>
       </c>
       <c r="AU135" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV135" t="n">
         <v>60</v>
@@ -25082,19 +25082,19 @@
         <v>51</v>
       </c>
       <c r="AX135" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AY135" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ135" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA135" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB135" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC135" t="n">
         <v>300</v>
@@ -25135,10 +25135,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H136" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I136" t="n">
         <v>3.5</v>
@@ -25147,46 +25147,46 @@
         <v>2.45</v>
       </c>
       <c r="K136" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L136" t="n">
         <v>3.85</v>
       </c>
       <c r="M136" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N136" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="O136" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P136" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S136" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T136" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U136" t="n">
         <v>1.65</v>
       </c>
-      <c r="R136" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S136" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T136" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="U136" t="n">
-        <v>1.6</v>
-      </c>
       <c r="V136" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="W136" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X136" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y136" t="n">
         <v>8.5</v>
@@ -25195,10 +25195,10 @@
         <v>16.5</v>
       </c>
       <c r="AA136" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB136" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC136" t="n">
         <v>12</v>
@@ -25207,19 +25207,19 @@
         <v>7.2</v>
       </c>
       <c r="AE136" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF136" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG136" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH136" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI136" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ136" t="n">
         <v>12</v>
@@ -25228,16 +25228,16 @@
         <v>50</v>
       </c>
       <c r="AL136" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM136" t="n">
         <v>32</v>
       </c>
       <c r="AN136" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO136" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP136" t="n">
         <v>17</v>
@@ -25252,13 +25252,13 @@
         <v>200</v>
       </c>
       <c r="AT136" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU136" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV136" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW136" t="n">
         <v>51</v>
@@ -25270,16 +25270,16 @@
         <v>18.5</v>
       </c>
       <c r="AZ136" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA136" t="n">
         <v>90</v>
       </c>
       <c r="BB136" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC136" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD136" t="n">
         <v>51</v>
@@ -26439,10 +26439,10 @@
         <v>3</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R143" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S143" t="n">
         <v>1.44</v>
@@ -26451,22 +26451,22 @@
         <v>2.63</v>
       </c>
       <c r="U143" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V143" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W143" t="n">
         <v>7</v>
       </c>
       <c r="X143" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y143" t="n">
         <v>9</v>
       </c>
       <c r="Z143" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA143" t="n">
         <v>17</v>
@@ -26496,7 +26496,7 @@
         <v>17</v>
       </c>
       <c r="AJ143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK143" t="n">
         <v>41</v>
@@ -26511,7 +26511,7 @@
         <v>4</v>
       </c>
       <c r="AO143" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP143" t="n">
         <v>23</v>
@@ -26520,7 +26520,7 @@
         <v>41</v>
       </c>
       <c r="AR143" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS143" t="n">
         <v>151</v>
@@ -38421,13 +38421,13 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H209" t="n">
         <v>3.6</v>
       </c>
       <c r="I209" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J209" t="n">
         <v>2.88</v>
@@ -38436,7 +38436,7 @@
         <v>2.4</v>
       </c>
       <c r="L209" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M209" t="n">
         <v>1.03</v>
@@ -38445,10 +38445,10 @@
         <v>17</v>
       </c>
       <c r="O209" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P209" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q209" t="n">
         <v>1.53</v>
@@ -38469,13 +38469,13 @@
         <v>2.63</v>
       </c>
       <c r="W209" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X209" t="n">
         <v>15</v>
       </c>
       <c r="Y209" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z209" t="n">
         <v>23</v>
@@ -38490,7 +38490,7 @@
         <v>17</v>
       </c>
       <c r="AD209" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE209" t="n">
         <v>11</v>
@@ -38499,13 +38499,13 @@
         <v>29</v>
       </c>
       <c r="AG209" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH209" t="n">
         <v>15</v>
       </c>
       <c r="AI209" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ209" t="n">
         <v>11</v>
@@ -38514,10 +38514,10 @@
         <v>29</v>
       </c>
       <c r="AL209" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM209" t="n">
         <v>21</v>
-      </c>
-      <c r="AM209" t="n">
-        <v>23</v>
       </c>
       <c r="AN209" t="n">
         <v>4.75</v>
@@ -38603,40 +38603,40 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H210" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I210" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J210" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K210" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L210" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M210" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N210" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O210" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P210" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q210" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R210" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S210" t="n">
         <v>1.29</v>
@@ -38654,13 +38654,13 @@
         <v>9.5</v>
       </c>
       <c r="X210" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y210" t="n">
         <v>8.5</v>
       </c>
       <c r="Z210" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA210" t="n">
         <v>12</v>
@@ -38672,10 +38672,10 @@
         <v>17</v>
       </c>
       <c r="AD210" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE210" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF210" t="n">
         <v>41</v>
@@ -38684,10 +38684,10 @@
         <v>151</v>
       </c>
       <c r="AH210" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI210" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ210" t="n">
         <v>15</v>
@@ -38702,16 +38702,16 @@
         <v>34</v>
       </c>
       <c r="AN210" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO210" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP210" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ210" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR210" t="n">
         <v>41</v>
@@ -38732,7 +38732,7 @@
         <v>401</v>
       </c>
       <c r="AX210" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY210" t="n">
         <v>23</v>
@@ -38741,7 +38741,7 @@
         <v>26</v>
       </c>
       <c r="BA210" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB210" t="n">
         <v>81</v>
@@ -38750,7 +38750,7 @@
         <v>151</v>
       </c>
       <c r="BD210" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="211">
@@ -38791,13 +38791,13 @@
         <v>4.33</v>
       </c>
       <c r="I211" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J211" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K211" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L211" t="n">
         <v>4</v>
@@ -38809,22 +38809,22 @@
         <v>23</v>
       </c>
       <c r="O211" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P211" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q211" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R211" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S211" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T211" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U211" t="n">
         <v>1.4</v>
@@ -38833,10 +38833,10 @@
         <v>2.75</v>
       </c>
       <c r="W211" t="n">
+        <v>15</v>
+      </c>
+      <c r="X211" t="n">
         <v>13</v>
-      </c>
-      <c r="X211" t="n">
-        <v>12</v>
       </c>
       <c r="Y211" t="n">
         <v>9</v>
@@ -38851,10 +38851,10 @@
         <v>17</v>
       </c>
       <c r="AC211" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD211" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE211" t="n">
         <v>12</v>
@@ -38869,10 +38869,10 @@
         <v>21</v>
       </c>
       <c r="AI211" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ211" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK211" t="n">
         <v>41</v>
@@ -38881,13 +38881,13 @@
         <v>26</v>
       </c>
       <c r="AM211" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN211" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO211" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP211" t="n">
         <v>13</v>
@@ -38902,7 +38902,7 @@
         <v>67</v>
       </c>
       <c r="AT211" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU211" t="n">
         <v>7</v>
@@ -38911,7 +38911,7 @@
         <v>34</v>
       </c>
       <c r="AW211" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX211" t="n">
         <v>6.5</v>
@@ -38920,7 +38920,7 @@
         <v>19</v>
       </c>
       <c r="AZ211" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA211" t="n">
         <v>51</v>
@@ -38929,10 +38929,10 @@
         <v>51</v>
       </c>
       <c r="BC211" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD211" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="212">
@@ -38967,22 +38967,22 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I212" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J212" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K212" t="n">
         <v>2.4</v>
       </c>
       <c r="L212" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M212" t="n">
         <v>1.03</v>
@@ -39009,79 +39009,79 @@
         <v>3.5</v>
       </c>
       <c r="U212" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V212" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W212" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X212" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y212" t="n">
         <v>9</v>
       </c>
       <c r="Z212" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA212" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB212" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC212" t="n">
         <v>17</v>
       </c>
       <c r="AD212" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE212" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF212" t="n">
         <v>34</v>
       </c>
       <c r="AG212" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH212" t="n">
         <v>15</v>
       </c>
       <c r="AI212" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL212" t="n">
         <v>21</v>
       </c>
-      <c r="AJ212" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK212" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL212" t="n">
+      <c r="AM212" t="n">
         <v>23</v>
       </c>
-      <c r="AM212" t="n">
-        <v>26</v>
-      </c>
       <c r="AN212" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO212" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP212" t="n">
         <v>17</v>
       </c>
       <c r="AQ212" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR212" t="n">
         <v>41</v>
       </c>
       <c r="AS212" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT212" t="n">
         <v>3.5</v>
@@ -39093,16 +39093,16 @@
         <v>41</v>
       </c>
       <c r="AW212" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX212" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY212" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ212" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA212" t="n">
         <v>51</v>
@@ -39149,19 +39149,19 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H213" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I213" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J213" t="n">
         <v>2.88</v>
       </c>
       <c r="K213" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L213" t="n">
         <v>3</v>
@@ -39191,10 +39191,10 @@
         <v>4</v>
       </c>
       <c r="U213" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V213" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W213" t="n">
         <v>15</v>
@@ -39218,25 +39218,25 @@
         <v>23</v>
       </c>
       <c r="AD213" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE213" t="n">
         <v>11</v>
       </c>
       <c r="AF213" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG213" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH213" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI213" t="n">
         <v>17</v>
       </c>
-      <c r="AI213" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ213" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK213" t="n">
         <v>29</v>
@@ -39254,10 +39254,10 @@
         <v>12</v>
       </c>
       <c r="AP213" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ213" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR213" t="n">
         <v>41</v>
@@ -39278,7 +39278,7 @@
         <v>201</v>
       </c>
       <c r="AX213" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY213" t="n">
         <v>13</v>
@@ -39331,22 +39331,22 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H214" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I214" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="J214" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K214" t="n">
         <v>2.4</v>
       </c>
       <c r="L214" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M214" t="n">
         <v>1.03</v>
@@ -39373,109 +39373,109 @@
         <v>3.5</v>
       </c>
       <c r="U214" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V214" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W214" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X214" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y214" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z214" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA214" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB214" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC214" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD214" t="n">
         <v>8</v>
       </c>
       <c r="AE214" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF214" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG214" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH214" t="n">
         <v>15</v>
       </c>
       <c r="AI214" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ214" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK214" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL214" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM214" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN214" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO214" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP214" t="n">
         <v>17</v>
       </c>
       <c r="AQ214" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR214" t="n">
         <v>41</v>
       </c>
       <c r="AS214" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT214" t="n">
         <v>3.5</v>
       </c>
       <c r="AU214" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV214" t="n">
         <v>41</v>
       </c>
       <c r="AW214" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX214" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY214" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ214" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA214" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB214" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC214" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD214" t="n">
         <v>176</v>
@@ -39513,22 +39513,22 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H215" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I215" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J215" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K215" t="n">
         <v>2.4</v>
       </c>
       <c r="L215" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M215" t="n">
         <v>1.03</v>
@@ -39537,10 +39537,10 @@
         <v>17</v>
       </c>
       <c r="O215" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P215" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q215" t="n">
         <v>1.53</v>
@@ -39561,16 +39561,16 @@
         <v>2.5</v>
       </c>
       <c r="W215" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X215" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y215" t="n">
         <v>11</v>
       </c>
       <c r="Z215" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA215" t="n">
         <v>21</v>
@@ -39594,13 +39594,13 @@
         <v>101</v>
       </c>
       <c r="AH215" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI215" t="n">
         <v>13</v>
       </c>
       <c r="AJ215" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK215" t="n">
         <v>21</v>
@@ -39609,7 +39609,7 @@
         <v>15</v>
       </c>
       <c r="AM215" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN215" t="n">
         <v>5.5</v>
@@ -39618,10 +39618,10 @@
         <v>15</v>
       </c>
       <c r="AP215" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ215" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR215" t="n">
         <v>51</v>
@@ -39642,22 +39642,22 @@
         <v>301</v>
       </c>
       <c r="AX215" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY215" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ215" t="n">
         <v>17</v>
       </c>
       <c r="BA215" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB215" t="n">
         <v>41</v>
       </c>
       <c r="BC215" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD215" t="n">
         <v>151</v>
@@ -39695,16 +39695,16 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H216" t="n">
         <v>3.75</v>
       </c>
       <c r="I216" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J216" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K216" t="n">
         <v>2.5</v>
@@ -39719,10 +39719,10 @@
         <v>19</v>
       </c>
       <c r="O216" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P216" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q216" t="n">
         <v>1.48</v>
@@ -39749,13 +39749,13 @@
         <v>17</v>
       </c>
       <c r="Y216" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z216" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA216" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB216" t="n">
         <v>21</v>
@@ -39779,7 +39779,7 @@
         <v>13</v>
       </c>
       <c r="AI216" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ216" t="n">
         <v>10</v>
@@ -39791,7 +39791,7 @@
         <v>17</v>
       </c>
       <c r="AM216" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN216" t="n">
         <v>5</v>
@@ -39827,7 +39827,7 @@
         <v>5</v>
       </c>
       <c r="AY216" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ216" t="n">
         <v>17</v>
@@ -40059,28 +40059,28 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H218" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I218" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J218" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K218" t="n">
         <v>2.88</v>
       </c>
       <c r="L218" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M218" t="n">
         <v>1.01</v>
       </c>
       <c r="N218" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O218" t="n">
         <v>1.07</v>
@@ -40110,13 +40110,13 @@
         <v>15</v>
       </c>
       <c r="X218" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y218" t="n">
         <v>9.5</v>
       </c>
       <c r="Z218" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA218" t="n">
         <v>11</v>
@@ -40131,22 +40131,22 @@
         <v>12</v>
       </c>
       <c r="AE218" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF218" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG218" t="n">
         <v>81</v>
       </c>
       <c r="AH218" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI218" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ218" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK218" t="n">
         <v>51</v>
@@ -40155,19 +40155,19 @@
         <v>34</v>
       </c>
       <c r="AM218" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN218" t="n">
         <v>4.33</v>
       </c>
       <c r="AO218" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP218" t="n">
         <v>12</v>
       </c>
       <c r="AQ218" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR218" t="n">
         <v>26</v>
@@ -40185,13 +40185,13 @@
         <v>34</v>
       </c>
       <c r="AW218" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AX218" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY218" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ218" t="n">
         <v>21</v>
@@ -40200,10 +40200,10 @@
         <v>67</v>
       </c>
       <c r="BB218" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC218" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD218" t="n">
         <v>176</v>
@@ -40241,13 +40241,13 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H219" t="n">
         <v>4</v>
       </c>
       <c r="I219" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J219" t="n">
         <v>3.25</v>
@@ -40259,10 +40259,10 @@
         <v>2.63</v>
       </c>
       <c r="M219" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N219" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O219" t="n">
         <v>1.13</v>
@@ -40277,10 +40277,10 @@
         <v>2.7</v>
       </c>
       <c r="S219" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T219" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U219" t="n">
         <v>1.4</v>
@@ -40289,7 +40289,7 @@
         <v>2.75</v>
       </c>
       <c r="W219" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X219" t="n">
         <v>19</v>
@@ -40301,13 +40301,13 @@
         <v>34</v>
       </c>
       <c r="AA219" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB219" t="n">
         <v>21</v>
       </c>
       <c r="AC219" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD219" t="n">
         <v>8.5</v>
@@ -40331,7 +40331,7 @@
         <v>9.5</v>
       </c>
       <c r="AK219" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL219" t="n">
         <v>15</v>
@@ -40346,7 +40346,7 @@
         <v>15</v>
       </c>
       <c r="AP219" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ219" t="n">
         <v>41</v>
@@ -40358,13 +40358,13 @@
         <v>81</v>
       </c>
       <c r="AT219" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU219" t="n">
         <v>6.5</v>
       </c>
       <c r="AV219" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW219" t="n">
         <v>251</v>
@@ -40388,7 +40388,7 @@
         <v>81</v>
       </c>
       <c r="BD219" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="220">
@@ -40605,22 +40605,22 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I221" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J221" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K221" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L221" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M221" t="n">
         <v>1.04</v>
@@ -40629,43 +40629,43 @@
         <v>8.5</v>
       </c>
       <c r="O221" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P221" t="n">
         <v>4</v>
       </c>
       <c r="Q221" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R221" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S221" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T221" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="U221" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V221" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W221" t="n">
         <v>11.5</v>
       </c>
       <c r="X221" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y221" t="n">
         <v>9.75</v>
       </c>
       <c r="Z221" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA221" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB221" t="n">
         <v>23</v>
@@ -40677,7 +40677,7 @@
         <v>7</v>
       </c>
       <c r="AE221" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF221" t="n">
         <v>40</v>
@@ -40686,7 +40686,7 @@
         <v>250</v>
       </c>
       <c r="AH221" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI221" t="n">
         <v>14</v>
@@ -40698,34 +40698,34 @@
         <v>27</v>
       </c>
       <c r="AL221" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP221" t="n">
         <v>18</v>
       </c>
-      <c r="AM221" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN221" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO221" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP221" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AQ221" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR221" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS221" t="n">
         <v>175</v>
       </c>
       <c r="AT221" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU221" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV221" t="n">
         <v>45</v>
@@ -40734,13 +40734,13 @@
         <v>51</v>
       </c>
       <c r="AX221" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AY221" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ221" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA221" t="n">
         <v>50</v>
@@ -40749,7 +40749,7 @@
         <v>70</v>
       </c>
       <c r="BC221" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD221" t="n">
         <v>51</v>
@@ -40787,22 +40787,22 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H222" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I222" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="J222" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K222" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L222" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="M222" t="n">
         <v>1.04</v>
@@ -40823,10 +40823,10 @@
         <v>2.07</v>
       </c>
       <c r="S222" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T222" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U222" t="n">
         <v>1.62</v>
@@ -40835,28 +40835,28 @@
         <v>2.15</v>
       </c>
       <c r="W222" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X222" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y222" t="n">
         <v>11.75</v>
-      </c>
-      <c r="X222" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y222" t="n">
-        <v>11.25</v>
       </c>
       <c r="Z222" t="n">
         <v>45</v>
       </c>
       <c r="AA222" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB222" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC222" t="n">
         <v>8.25</v>
       </c>
       <c r="AD222" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE222" t="n">
         <v>13</v>
@@ -40871,43 +40871,43 @@
         <v>8.75</v>
       </c>
       <c r="AI222" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AJ222" t="n">
         <v>8.5</v>
       </c>
       <c r="AK222" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL222" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM222" t="n">
         <v>23</v>
       </c>
       <c r="AN222" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO222" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP222" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ222" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR222" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS222" t="n">
         <v>250</v>
       </c>
       <c r="AT222" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU222" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV222" t="n">
         <v>55</v>
@@ -40916,16 +40916,16 @@
         <v>51</v>
       </c>
       <c r="AX222" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AY222" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ222" t="n">
         <v>17</v>
       </c>
       <c r="BA222" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB222" t="n">
         <v>60</v>
@@ -40969,10 +40969,10 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="H223" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="I223" t="n">
         <v>1.29</v>
@@ -41002,25 +41002,25 @@
         <v>1.9</v>
       </c>
       <c r="R223" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S223" t="n">
         <v>1.4</v>
       </c>
       <c r="T223" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U223" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V223" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W223" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X223" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y223" t="n">
         <v>35</v>
@@ -41032,7 +41032,7 @@
         <v>175</v>
       </c>
       <c r="AB223" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AC223" t="n">
         <v>7.4</v>
@@ -41041,7 +41041,7 @@
         <v>9.75</v>
       </c>
       <c r="AE223" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF223" t="n">
         <v>200</v>
@@ -41059,13 +41059,13 @@
         <v>9.25</v>
       </c>
       <c r="AK223" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AL223" t="n">
         <v>12.5</v>
       </c>
       <c r="AM223" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN223" t="n">
         <v>10.25</v>
@@ -41074,7 +41074,7 @@
         <v>70</v>
       </c>
       <c r="AP223" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ223" t="n">
         <v>500</v>
@@ -41086,7 +41086,7 @@
         <v>500</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU223" t="n">
         <v>10.5</v>
@@ -41101,13 +41101,13 @@
         <v>2.9</v>
       </c>
       <c r="AY223" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AZ223" t="n">
         <v>21</v>
       </c>
       <c r="BA223" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BB223" t="n">
         <v>60</v>
@@ -41333,22 +41333,22 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H225" t="n">
         <v>4</v>
       </c>
       <c r="I225" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J225" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K225" t="n">
         <v>2.32</v>
       </c>
       <c r="L225" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M225" t="n">
         <v>1.04</v>
@@ -41363,10 +41363,10 @@
         <v>3.85</v>
       </c>
       <c r="Q225" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R225" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S225" t="n">
         <v>1.33</v>
@@ -41384,16 +41384,16 @@
         <v>7.9</v>
       </c>
       <c r="X225" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y225" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z225" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA225" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB225" t="n">
         <v>23</v>
@@ -41405,7 +41405,7 @@
         <v>8</v>
       </c>
       <c r="AE225" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF225" t="n">
         <v>65</v>
@@ -41414,16 +41414,16 @@
         <v>450</v>
       </c>
       <c r="AH225" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ225" t="n">
         <v>15.5</v>
       </c>
-      <c r="AI225" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ225" t="n">
-        <v>16</v>
-      </c>
       <c r="AK225" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL225" t="n">
         <v>45</v>
@@ -41432,16 +41432,16 @@
         <v>45</v>
       </c>
       <c r="AN225" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO225" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP225" t="n">
         <v>16</v>
       </c>
       <c r="AQ225" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR225" t="n">
         <v>50</v>
@@ -41453,7 +41453,7 @@
         <v>3.05</v>
       </c>
       <c r="AU225" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV225" t="n">
         <v>65</v>
@@ -41462,13 +41462,13 @@
         <v>51</v>
       </c>
       <c r="AX225" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AY225" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ225" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA225" t="n">
         <v>150</v>
@@ -41477,7 +41477,7 @@
         <v>175</v>
       </c>
       <c r="BC225" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD225" t="n">
         <v>51</v>
@@ -41518,82 +41518,82 @@
         <v>1.95</v>
       </c>
       <c r="H226" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I226" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J226" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="K226" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L226" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M226" t="n">
         <v>1.06</v>
       </c>
       <c r="N226" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O226" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P226" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q226" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R226" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S226" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T226" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="U226" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V226" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W226" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X226" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y226" t="n">
         <v>8.5</v>
       </c>
       <c r="Z226" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA226" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB226" t="n">
         <v>27</v>
       </c>
       <c r="AC226" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD226" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE226" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF226" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG226" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH226" t="n">
         <v>10.25</v>
@@ -41602,19 +41602,19 @@
         <v>18</v>
       </c>
       <c r="AJ226" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK226" t="n">
         <v>45</v>
       </c>
       <c r="AL226" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM226" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN226" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO226" t="n">
         <v>10.25</v>
@@ -41632,7 +41632,7 @@
         <v>250</v>
       </c>
       <c r="AT226" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU226" t="n">
         <v>7.4</v>
@@ -41647,7 +41647,7 @@
         <v>5.3</v>
       </c>
       <c r="AY226" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ226" t="n">
         <v>27</v>
@@ -41697,151 +41697,151 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H227" t="n">
         <v>3.1</v>
       </c>
       <c r="I227" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="J227" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="K227" t="n">
         <v>2.02</v>
       </c>
       <c r="L227" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="M227" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N227" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O227" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P227" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="Q227" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="R227" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S227" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T227" t="n">
         <v>2.55</v>
       </c>
       <c r="U227" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V227" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W227" t="n">
         <v>8.75</v>
       </c>
       <c r="X227" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE227" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y227" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Z227" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA227" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB227" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC227" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD227" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE227" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AF227" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG227" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH227" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AI227" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ227" t="n">
         <v>9</v>
       </c>
       <c r="AK227" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL227" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM227" t="n">
         <v>35</v>
       </c>
       <c r="AN227" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AO227" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AP227" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ227" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR227" t="n">
         <v>150</v>
       </c>
       <c r="AS227" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU227" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV227" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW227" t="n">
         <v>51</v>
       </c>
       <c r="AX227" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AY227" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AZ227" t="n">
         <v>22</v>
       </c>
       <c r="BA227" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB227" t="n">
         <v>90</v>
       </c>
       <c r="BC227" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD227" t="n">
         <v>51</v>
@@ -41879,40 +41879,40 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H228" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I228" t="n">
-        <v>5.1</v>
+        <v>4.65</v>
       </c>
       <c r="J228" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="K228" t="n">
         <v>2.27</v>
       </c>
       <c r="L228" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="M228" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N228" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O228" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P228" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="Q228" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R228" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S228" t="n">
         <v>1.35</v>
@@ -41921,73 +41921,73 @@
         <v>2.95</v>
       </c>
       <c r="U228" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="V228" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="W228" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="X228" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="Y228" t="n">
         <v>8</v>
       </c>
       <c r="Z228" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AA228" t="n">
         <v>12</v>
       </c>
       <c r="AB228" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC228" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD228" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE228" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AF228" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG228" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AH228" t="n">
         <v>15</v>
       </c>
       <c r="AI228" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ228" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AK228" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AL228" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM228" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN228" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AO228" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AP228" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ228" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR228" t="n">
         <v>50</v>
@@ -41999,31 +41999,31 @@
         <v>2.95</v>
       </c>
       <c r="AU228" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AV228" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW228" t="n">
         <v>51</v>
       </c>
       <c r="AX228" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AY228" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ228" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA228" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB228" t="n">
         <v>175</v>
       </c>
-      <c r="BB228" t="n">
-        <v>200</v>
-      </c>
       <c r="BC228" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BD228" t="n">
         <v>51</v>
@@ -42425,40 +42425,40 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H231" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I231" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J231" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="K231" t="n">
         <v>2.25</v>
       </c>
       <c r="L231" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="M231" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N231" t="n">
-        <v>9.85</v>
+        <v>12.8</v>
       </c>
       <c r="O231" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P231" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q231" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R231" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S231" t="n">
         <v>1.4</v>
@@ -42476,67 +42476,67 @@
         <v>6.3</v>
       </c>
       <c r="X231" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y231" t="n">
         <v>8.25</v>
       </c>
       <c r="Z231" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA231" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB231" t="n">
         <v>29</v>
       </c>
       <c r="AC231" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD231" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE231" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF231" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG231" t="n">
         <v>900</v>
       </c>
       <c r="AH231" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI231" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR231" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ231" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK231" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL231" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM231" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN231" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO231" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP231" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ231" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AR231" t="n">
-        <v>55</v>
       </c>
       <c r="AS231" t="n">
         <v>250</v>
@@ -42545,28 +42545,28 @@
         <v>2.62</v>
       </c>
       <c r="AU231" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV231" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW231" t="n">
         <v>51</v>
       </c>
       <c r="AX231" t="n">
-        <v>7.9</v>
+        <v>9.25</v>
       </c>
       <c r="AY231" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AZ231" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BA231" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="BB231" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="BC231" t="n">
         <v>51</v>
